--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>People are always asking you questions like “How are you?” or “Having a nice day?” for which they don’t really want the real answers.</t>
   </si>
@@ -420,6 +420,15 @@
   </si>
   <si>
     <t>IT20B</t>
+  </si>
+  <si>
+    <t>IT21C</t>
+  </si>
+  <si>
+    <t>IT25A</t>
+  </si>
+  <si>
+    <t>IT26B</t>
   </si>
 </sst>
 </file>
@@ -741,9 +750,9 @@
   <dimension ref="A1:AL123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +760,7 @@
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -788,8 +797,17 @@
       <c r="L1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -826,8 +844,17 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -864,8 +891,17 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -902,8 +938,17 @@
       <c r="L4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0.5</v>
+      </c>
+      <c r="N4">
+        <v>0.5</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -940,8 +985,17 @@
       <c r="L5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -978,8 +1032,17 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1016,8 +1079,17 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1126,17 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1173,17 @@
       <c r="L9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>0.5</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1130,8 +1220,17 @@
       <c r="L10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0.5</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1168,8 +1267,17 @@
       <c r="L11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0.5</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1206,8 +1314,17 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1244,8 +1361,17 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1282,8 +1408,17 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1320,8 +1455,17 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0.5</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1358,8 +1502,17 @@
       <c r="L16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>0.5</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1396,8 +1549,17 @@
       <c r="L17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0.5</v>
+      </c>
+      <c r="O17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1434,8 +1596,17 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1472,8 +1643,17 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0.5</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1510,8 +1690,17 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1548,8 +1737,17 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1586,8 +1784,17 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1624,8 +1831,17 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1662,8 +1878,17 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1700,8 +1925,17 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1738,8 +1972,17 @@
       <c r="L26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1776,8 +2019,17 @@
       <c r="L27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1814,8 +2066,17 @@
       <c r="L28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1852,8 +2113,17 @@
       <c r="L29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1890,8 +2160,17 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1928,8 +2207,17 @@
       <c r="L31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1966,8 +2254,17 @@
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2004,8 +2301,17 @@
       <c r="L33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>0.5</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2042,8 +2348,17 @@
       <c r="L34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2080,8 +2395,17 @@
       <c r="L35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2118,8 +2442,17 @@
       <c r="L36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2156,8 +2489,17 @@
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>0.5</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2536,17 @@
       <c r="L38">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0.5</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2232,8 +2583,17 @@
       <c r="L39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2270,8 +2630,17 @@
       <c r="L40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2308,8 +2677,17 @@
       <c r="L41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2346,8 +2724,17 @@
       <c r="L42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2384,8 +2771,17 @@
       <c r="L43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2422,8 +2818,17 @@
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>0.5</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2460,8 +2865,17 @@
       <c r="L45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>0.5</v>
+      </c>
+      <c r="N45">
+        <v>0.5</v>
+      </c>
+      <c r="O45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2498,8 +2912,17 @@
       <c r="L46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2536,8 +2959,17 @@
       <c r="L47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2574,8 +3006,17 @@
       <c r="L48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2612,8 +3053,17 @@
       <c r="L49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2650,8 +3100,17 @@
       <c r="L50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2688,8 +3147,17 @@
       <c r="L51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2726,8 +3194,17 @@
       <c r="L52">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2764,8 +3241,17 @@
       <c r="L53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2802,8 +3288,17 @@
       <c r="L54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2840,8 +3335,17 @@
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2878,8 +3382,17 @@
       <c r="L56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2916,8 +3429,17 @@
       <c r="L57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2954,8 +3476,17 @@
       <c r="L58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2992,8 +3523,17 @@
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3030,8 +3570,17 @@
       <c r="L60">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3617,17 @@
       <c r="L61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3106,8 +3664,17 @@
       <c r="L62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3144,8 +3711,17 @@
       <c r="L63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3182,8 +3758,17 @@
       <c r="L64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3220,8 +3805,17 @@
       <c r="L65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3258,8 +3852,17 @@
       <c r="L66">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>0.5</v>
+      </c>
+      <c r="N66">
+        <v>0.5</v>
+      </c>
+      <c r="O66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3296,8 +3899,17 @@
       <c r="L67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3334,8 +3946,17 @@
       <c r="L68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3372,8 +3993,17 @@
       <c r="L69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3410,8 +4040,17 @@
       <c r="L70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3448,8 +4087,17 @@
       <c r="L71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3486,8 +4134,17 @@
       <c r="L72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3524,8 +4181,17 @@
       <c r="L73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3562,8 +4228,17 @@
       <c r="L74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3600,8 +4275,17 @@
       <c r="L75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3638,8 +4322,17 @@
       <c r="L76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3676,8 +4369,17 @@
       <c r="L77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3714,8 +4416,17 @@
       <c r="L78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3752,8 +4463,17 @@
       <c r="L79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>0.5</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3790,8 +4510,17 @@
       <c r="L80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3828,8 +4557,17 @@
       <c r="L81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3866,8 +4604,17 @@
       <c r="L82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3904,8 +4651,17 @@
       <c r="L83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -3942,8 +4698,17 @@
       <c r="L84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3980,8 +4745,17 @@
       <c r="L85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4018,8 +4792,17 @@
       <c r="L86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4056,8 +4839,17 @@
       <c r="L87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4094,8 +4886,17 @@
       <c r="L88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4132,8 +4933,17 @@
       <c r="L89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4170,8 +4980,17 @@
       <c r="L90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4208,8 +5027,17 @@
       <c r="L91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4246,8 +5074,17 @@
       <c r="L92">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>0.5</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4284,8 +5121,17 @@
       <c r="L93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4322,8 +5168,17 @@
       <c r="L94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4360,8 +5215,17 @@
       <c r="L95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>0.5</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4398,8 +5262,17 @@
       <c r="L96">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4436,8 +5309,17 @@
       <c r="L97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4474,8 +5356,17 @@
       <c r="L98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4512,8 +5403,17 @@
       <c r="L99">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4550,8 +5450,17 @@
       <c r="L100">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4588,8 +5497,17 @@
       <c r="L101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4626,8 +5544,17 @@
       <c r="L102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4664,8 +5591,17 @@
       <c r="L103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4702,8 +5638,17 @@
       <c r="L104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4740,8 +5685,17 @@
       <c r="L105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4778,8 +5732,17 @@
       <c r="L106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4816,8 +5779,17 @@
       <c r="L107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4854,8 +5826,17 @@
       <c r="L108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4892,8 +5873,17 @@
       <c r="L109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>0.5</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4930,8 +5920,17 @@
       <c r="L110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4968,8 +5967,17 @@
       <c r="L111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <v>0.5</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -5004,6 +6012,15 @@
         <v>0</v>
       </c>
       <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
         <v>0</v>
       </c>
     </row>
@@ -5044,6 +6061,15 @@
       <c r="L113">
         <v>0</v>
       </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -5082,6 +6108,15 @@
       <c r="L114">
         <v>0</v>
       </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -5120,6 +6155,15 @@
       <c r="L115">
         <v>0</v>
       </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -5158,6 +6202,15 @@
       <c r="L116">
         <v>0</v>
       </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -5196,6 +6249,15 @@
       <c r="L117">
         <v>1</v>
       </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -5234,6 +6296,15 @@
       <c r="L118">
         <v>0</v>
       </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -5272,6 +6343,15 @@
       <c r="L119">
         <v>0</v>
       </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -5310,6 +6390,15 @@
       <c r="L120">
         <v>0</v>
       </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -5346,6 +6435,15 @@
         <v>0</v>
       </c>
       <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
         <v>0</v>
       </c>
     </row>
@@ -5396,15 +6494,15 @@
       </c>
       <c r="M123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="N123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="O123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P123">
         <f t="shared" si="0"/>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MACA LAB\Desktop\MI Testing\Experiment 1\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MACA LAB\Documents\GitHub\Story-details\MI Test\Experiment 1\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>People are always asking you questions like “How are you?” or “Having a nice day?” for which they don’t really want the real answers.</t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>IT26B</t>
+  </si>
+  <si>
+    <t>IT27C</t>
+  </si>
+  <si>
+    <t>IT31A</t>
   </si>
 </sst>
 </file>
@@ -749,10 +755,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="P1" sqref="P1"/>
+      <selection pane="topRight" activeCell="Q122" sqref="Q122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +766,7 @@
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -806,8 +812,14 @@
       <c r="O1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -853,8 +865,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -900,8 +918,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -947,8 +971,14 @@
       <c r="O4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1024,14 @@
       <c r="O5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1041,8 +1077,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1088,8 +1130,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1135,8 +1183,14 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1182,8 +1236,14 @@
       <c r="O9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1229,8 +1289,14 @@
       <c r="O10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1276,8 +1342,14 @@
       <c r="O11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1323,8 +1395,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1370,8 +1448,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1417,8 +1501,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1464,8 +1554,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1511,8 +1607,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1558,8 +1660,14 @@
       <c r="O17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1605,8 +1713,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1766,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1699,8 +1819,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1746,8 +1872,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1793,8 +1925,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1840,8 +1978,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1887,8 +2031,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1934,8 +2084,14 @@
       <c r="O25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1981,8 +2137,14 @@
       <c r="O26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2028,8 +2190,14 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2075,8 +2243,14 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2122,8 +2296,14 @@
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2169,8 +2349,14 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2216,8 +2402,14 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2263,8 +2455,14 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2310,8 +2508,14 @@
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2357,8 +2561,14 @@
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2404,8 +2614,14 @@
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2451,8 +2667,14 @@
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2498,8 +2720,14 @@
       <c r="O37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>0.5</v>
+      </c>
+      <c r="Q37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2545,8 +2773,14 @@
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2592,8 +2826,14 @@
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2639,8 +2879,14 @@
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2686,8 +2932,14 @@
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2733,8 +2985,14 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2780,8 +3038,14 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2827,8 +3091,14 @@
       <c r="O44">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3144,14 @@
       <c r="O45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2921,8 +3197,14 @@
       <c r="O46">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2968,8 +3250,14 @@
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3015,8 +3303,14 @@
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3062,8 +3356,14 @@
       <c r="O49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3109,8 +3409,14 @@
       <c r="O50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3156,8 +3462,14 @@
       <c r="O51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3203,8 +3515,14 @@
       <c r="O52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3250,8 +3568,14 @@
       <c r="O53">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3297,8 +3621,14 @@
       <c r="O54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3344,8 +3674,14 @@
       <c r="O55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3391,8 +3727,14 @@
       <c r="O56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3438,8 +3780,14 @@
       <c r="O57">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3485,8 +3833,14 @@
       <c r="O58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3532,8 +3886,14 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3579,8 +3939,14 @@
       <c r="O60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3626,8 +3992,14 @@
       <c r="O61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3673,8 +4045,14 @@
       <c r="O62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3720,8 +4098,14 @@
       <c r="O63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3767,8 +4151,14 @@
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3814,8 +4204,14 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3861,8 +4257,14 @@
       <c r="O66">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3908,8 +4310,14 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3955,8 +4363,14 @@
       <c r="O68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4002,8 +4416,14 @@
       <c r="O69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4049,8 +4469,14 @@
       <c r="O70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4096,8 +4522,14 @@
       <c r="O71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4143,8 +4575,14 @@
       <c r="O72">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4190,8 +4628,14 @@
       <c r="O73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4237,8 +4681,14 @@
       <c r="O74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4284,8 +4734,14 @@
       <c r="O75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4331,8 +4787,14 @@
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4378,8 +4840,14 @@
       <c r="O77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4425,8 +4893,14 @@
       <c r="O78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4472,8 +4946,14 @@
       <c r="O79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4519,8 +4999,14 @@
       <c r="O80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4566,8 +5052,14 @@
       <c r="O81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4613,8 +5105,14 @@
       <c r="O82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4660,8 +5158,14 @@
       <c r="O83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4707,8 +5211,14 @@
       <c r="O84">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <v>0.5</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4754,8 +5264,14 @@
       <c r="O85">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4801,8 +5317,14 @@
       <c r="O86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4848,8 +5370,14 @@
       <c r="O87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4895,8 +5423,14 @@
       <c r="O88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4942,8 +5476,14 @@
       <c r="O89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4989,8 +5529,14 @@
       <c r="O90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -5036,8 +5582,14 @@
       <c r="O91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -5083,8 +5635,14 @@
       <c r="O92">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92">
+        <v>0.5</v>
+      </c>
+      <c r="Q92">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -5130,8 +5688,14 @@
       <c r="O93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -5177,8 +5741,14 @@
       <c r="O94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -5224,8 +5794,14 @@
       <c r="O95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -5271,8 +5847,14 @@
       <c r="O96">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -5318,8 +5900,14 @@
       <c r="O97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -5365,8 +5953,14 @@
       <c r="O98">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -5412,8 +6006,14 @@
       <c r="O99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -5459,8 +6059,14 @@
       <c r="O100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -5506,8 +6112,14 @@
       <c r="O101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -5553,8 +6165,14 @@
       <c r="O102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -5600,8 +6218,14 @@
       <c r="O103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -5647,8 +6271,14 @@
       <c r="O104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -5694,8 +6324,14 @@
       <c r="O105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5741,8 +6377,14 @@
       <c r="O106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -5788,8 +6430,14 @@
       <c r="O107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -5835,8 +6483,14 @@
       <c r="O108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5882,8 +6536,14 @@
       <c r="O109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -5929,8 +6589,14 @@
       <c r="O110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -5976,8 +6642,14 @@
       <c r="O111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -6021,6 +6693,12 @@
         <v>0</v>
       </c>
       <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
         <v>0</v>
       </c>
     </row>
@@ -6070,6 +6748,12 @@
       <c r="O113">
         <v>0</v>
       </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -6117,6 +6801,12 @@
       <c r="O114">
         <v>0</v>
       </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -6164,6 +6854,12 @@
       <c r="O115">
         <v>0</v>
       </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -6211,6 +6907,12 @@
       <c r="O116">
         <v>0</v>
       </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -6258,6 +6960,12 @@
       <c r="O117">
         <v>0</v>
       </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -6305,6 +7013,12 @@
       <c r="O118">
         <v>0</v>
       </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -6352,6 +7066,12 @@
       <c r="O119">
         <v>0</v>
       </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -6399,6 +7119,12 @@
       <c r="O120">
         <v>0</v>
       </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -6444,6 +7170,12 @@
         <v>0</v>
       </c>
       <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
         <v>0</v>
       </c>
     </row>
@@ -6506,11 +7238,11 @@
       </c>
       <c r="P123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R123">
         <f t="shared" si="0"/>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -755,10 +755,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="Q122" sqref="Q122"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>People are always asking you questions like “How are you?” or “Having a nice day?” for which they don’t really want the real answers.</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>IT31A</t>
+  </si>
+  <si>
+    <t>IT32B</t>
   </si>
 </sst>
 </file>
@@ -756,9 +759,9 @@
   <dimension ref="A1:AL123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
+      <selection pane="topRight" activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +769,7 @@
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -818,8 +821,11 @@
       <c r="Q1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -871,8 +877,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -924,8 +933,11 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -977,8 +989,11 @@
       <c r="Q4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1030,8 +1045,11 @@
       <c r="Q5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1083,8 +1101,11 @@
       <c r="Q6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1136,8 +1157,11 @@
       <c r="Q7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1189,8 +1213,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1242,8 +1269,11 @@
       <c r="Q9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1295,8 +1325,11 @@
       <c r="Q10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1348,8 +1381,11 @@
       <c r="Q11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1401,8 +1437,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1454,8 +1493,11 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1507,8 +1549,11 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1560,8 +1605,11 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1613,8 +1661,11 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1666,8 +1717,11 @@
       <c r="Q17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1719,8 +1773,11 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1772,8 +1829,11 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1825,8 +1885,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1878,8 +1941,11 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1931,8 +1997,11 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1984,8 +2053,11 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2037,8 +2109,11 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2090,8 +2165,11 @@
       <c r="Q25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2143,8 +2221,11 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2277,11 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2249,8 +2333,11 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2302,8 +2389,11 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2355,8 +2445,11 @@
       <c r="Q30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2408,8 +2501,11 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2461,8 +2557,11 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2514,8 +2613,11 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2567,8 +2669,11 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2620,8 +2725,11 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2673,8 +2781,11 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2726,8 +2837,11 @@
       <c r="Q37">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2779,8 +2893,11 @@
       <c r="Q38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2832,8 +2949,11 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +3005,11 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2938,8 +3061,11 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2991,8 +3117,11 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3044,8 +3173,11 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3097,8 +3229,11 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3150,8 +3285,11 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3203,8 +3341,11 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3256,8 +3397,11 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3309,8 +3453,11 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3362,8 +3509,11 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3415,8 +3565,11 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3468,8 +3621,11 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3521,8 +3677,11 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3574,8 +3733,11 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3627,8 +3789,11 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3680,8 +3845,11 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3733,8 +3901,11 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3786,8 +3957,11 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +4013,11 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3892,8 +4069,11 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3945,8 +4125,11 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3998,8 +4181,11 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4051,8 +4237,11 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4104,8 +4293,11 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4157,8 +4349,11 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4210,8 +4405,11 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4263,8 +4461,11 @@
       <c r="Q66">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4316,8 +4517,11 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4369,8 +4573,11 @@
       <c r="Q68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4422,8 +4629,11 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4475,8 +4685,11 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4528,8 +4741,11 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4581,8 +4797,11 @@
       <c r="Q72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4634,8 +4853,11 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4687,8 +4909,11 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4965,11 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4793,8 +5021,11 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4846,8 +5077,11 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4899,8 +5133,11 @@
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="Q79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5301,11 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -5111,8 +5357,11 @@
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -5164,8 +5413,11 @@
       <c r="Q83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -5217,8 +5469,11 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -5270,8 +5525,11 @@
       <c r="Q85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -5323,8 +5581,11 @@
       <c r="Q86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5637,11 @@
       <c r="Q87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -5429,8 +5693,11 @@
       <c r="Q88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -5482,8 +5749,11 @@
       <c r="Q89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -5535,8 +5805,11 @@
       <c r="Q90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -5588,8 +5861,11 @@
       <c r="Q91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -5641,8 +5917,11 @@
       <c r="Q92">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -5694,8 +5973,11 @@
       <c r="Q93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -5747,8 +6029,11 @@
       <c r="Q94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -5800,8 +6085,11 @@
       <c r="Q95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -5853,8 +6141,11 @@
       <c r="Q96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -5906,8 +6197,11 @@
       <c r="Q97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -5959,8 +6253,11 @@
       <c r="Q98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -6012,8 +6309,11 @@
       <c r="Q99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -6065,8 +6365,11 @@
       <c r="Q100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -6118,8 +6421,11 @@
       <c r="Q101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -6171,8 +6477,11 @@
       <c r="Q102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -6224,8 +6533,11 @@
       <c r="Q103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -6277,8 +6589,11 @@
       <c r="Q104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -6330,8 +6645,11 @@
       <c r="Q105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -6383,8 +6701,11 @@
       <c r="Q106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -6436,8 +6757,11 @@
       <c r="Q107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -6489,8 +6813,11 @@
       <c r="Q108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -6542,8 +6869,11 @@
       <c r="Q109">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -6595,8 +6925,11 @@
       <c r="Q110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -6648,8 +6981,11 @@
       <c r="Q111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -6699,6 +7035,9 @@
         <v>0</v>
       </c>
       <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
         <v>0</v>
       </c>
     </row>
@@ -6754,6 +7093,9 @@
       <c r="Q113">
         <v>0</v>
       </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -6807,6 +7149,9 @@
       <c r="Q114">
         <v>0</v>
       </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -6860,6 +7205,9 @@
       <c r="Q115">
         <v>0</v>
       </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -6913,6 +7261,9 @@
       <c r="Q116">
         <v>0</v>
       </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -6966,6 +7317,9 @@
       <c r="Q117">
         <v>1</v>
       </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -7019,6 +7373,9 @@
       <c r="Q118">
         <v>0</v>
       </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -7072,6 +7429,9 @@
       <c r="Q119">
         <v>0.5</v>
       </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -7125,6 +7485,9 @@
       <c r="Q120">
         <v>0</v>
       </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -7176,6 +7539,9 @@
         <v>0</v>
       </c>
       <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
         <v>0</v>
       </c>
     </row>
@@ -7246,7 +7612,7 @@
       </c>
       <c r="R123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S123">
         <f t="shared" si="0"/>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>People are always asking you questions like “How are you?” or “Having a nice day?” for which they don’t really want the real answers.</t>
   </si>
@@ -438,6 +438,30 @@
   </si>
   <si>
     <t>IT32B</t>
+  </si>
+  <si>
+    <t>IT33C</t>
+  </si>
+  <si>
+    <t>IT37A</t>
+  </si>
+  <si>
+    <t>IT38B</t>
+  </si>
+  <si>
+    <t>IT39C</t>
+  </si>
+  <si>
+    <t>IT43A</t>
+  </si>
+  <si>
+    <t>IT44B</t>
+  </si>
+  <si>
+    <t>IT45C</t>
+  </si>
+  <si>
+    <t>IT49A</t>
   </si>
 </sst>
 </file>
@@ -759,9 +783,9 @@
   <dimension ref="A1:AL123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="R75" sqref="R75"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +793,7 @@
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -824,8 +848,32 @@
       <c r="R1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -880,8 +928,29 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -936,8 +1005,29 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -992,8 +1082,29 @@
       <c r="R4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0.5</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1048,8 +1159,29 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1236,29 @@
       <c r="R6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1160,8 +1313,29 @@
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1216,8 +1390,29 @@
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0.5</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1272,8 +1467,29 @@
       <c r="R9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1328,8 +1544,29 @@
       <c r="R10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.5</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1384,8 +1621,29 @@
       <c r="R11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <v>0.5</v>
+      </c>
+      <c r="U11">
+        <v>0.5</v>
+      </c>
+      <c r="V11">
+        <v>0.5</v>
+      </c>
+      <c r="W11">
+        <v>0.5</v>
+      </c>
+      <c r="X11">
+        <v>0.5</v>
+      </c>
+      <c r="Y11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1440,8 +1698,29 @@
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1496,8 +1775,29 @@
       <c r="R13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1552,8 +1852,29 @@
       <c r="R14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.5</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1608,8 +1929,29 @@
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>0.5</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1664,8 +2006,29 @@
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1720,8 +2083,29 @@
       <c r="R17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>0.5</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1776,8 +2160,29 @@
       <c r="R18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1832,8 +2237,29 @@
       <c r="R19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1888,8 +2314,29 @@
       <c r="R20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1944,8 +2391,29 @@
       <c r="R21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2000,8 +2468,29 @@
       <c r="R22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2056,8 +2545,29 @@
       <c r="R23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2112,8 +2622,29 @@
       <c r="R24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2168,8 +2699,29 @@
       <c r="R25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2224,8 +2776,29 @@
       <c r="R26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2280,8 +2853,29 @@
       <c r="R27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2336,8 +2930,29 @@
       <c r="R28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2392,8 +3007,29 @@
       <c r="R29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2448,8 +3084,29 @@
       <c r="R30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>0.5</v>
+      </c>
+      <c r="T30">
+        <v>0.5</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2504,8 +3161,29 @@
       <c r="R31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2560,8 +3238,29 @@
       <c r="R32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0.5</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2616,8 +3315,29 @@
       <c r="R33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2672,8 +3392,29 @@
       <c r="R34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2728,8 +3469,29 @@
       <c r="R35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>0.5</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2784,8 +3546,29 @@
       <c r="R36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2840,8 +3623,29 @@
       <c r="R37">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>0.5</v>
+      </c>
+      <c r="T37">
+        <v>0.5</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2896,8 +3700,29 @@
       <c r="R38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2952,8 +3777,29 @@
       <c r="R39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3008,8 +3854,29 @@
       <c r="R40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3064,8 +3931,29 @@
       <c r="R41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3120,8 +4008,29 @@
       <c r="R42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3176,8 +4085,29 @@
       <c r="R43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3232,8 +4162,29 @@
       <c r="R44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3288,8 +4239,29 @@
       <c r="R45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3344,8 +4316,29 @@
       <c r="R46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3400,8 +4393,29 @@
       <c r="R47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3456,8 +4470,29 @@
       <c r="R48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0.5</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3512,8 +4547,29 @@
       <c r="R49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3568,8 +4624,29 @@
       <c r="R50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3624,8 +4701,29 @@
       <c r="R51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3680,8 +4778,29 @@
       <c r="R52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>0.5</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3736,8 +4855,29 @@
       <c r="R53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0.5</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3792,8 +4932,29 @@
       <c r="R54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3848,8 +5009,29 @@
       <c r="R55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3904,8 +5086,29 @@
       <c r="R56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3960,8 +5163,29 @@
       <c r="R57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4016,8 +5240,29 @@
       <c r="R58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>0.5</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4072,8 +5317,29 @@
       <c r="R59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4128,8 +5394,29 @@
       <c r="R60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4184,8 +5471,29 @@
       <c r="R61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4240,8 +5548,29 @@
       <c r="R62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4296,8 +5625,29 @@
       <c r="R63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4352,8 +5702,29 @@
       <c r="R64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4408,8 +5779,29 @@
       <c r="R65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4464,8 +5856,29 @@
       <c r="R66">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <v>0.5</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0.5</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4520,8 +5933,29 @@
       <c r="R67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4576,8 +6010,29 @@
       <c r="R68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4632,8 +6087,29 @@
       <c r="R69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4688,8 +6164,29 @@
       <c r="R70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4744,8 +6241,29 @@
       <c r="R71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4800,8 +6318,29 @@
       <c r="R72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4856,8 +6395,29 @@
       <c r="R73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4912,8 +6472,29 @@
       <c r="R74">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4968,8 +6549,29 @@
       <c r="R75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0.5</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -5024,8 +6626,29 @@
       <c r="R76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -5080,8 +6703,29 @@
       <c r="R77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -5136,8 +6780,29 @@
       <c r="R78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +6857,29 @@
       <c r="R79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -5248,8 +6934,29 @@
       <c r="R80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -5304,8 +7011,29 @@
       <c r="R81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -5360,8 +7088,29 @@
       <c r="R82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -5416,8 +7165,29 @@
       <c r="R83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -5472,8 +7242,29 @@
       <c r="R84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -5528,8 +7319,29 @@
       <c r="R85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0.5</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -5584,8 +7396,29 @@
       <c r="R86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -5640,8 +7473,29 @@
       <c r="R87">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -5696,8 +7550,29 @@
       <c r="R88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -5752,8 +7627,29 @@
       <c r="R89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -5808,8 +7704,29 @@
       <c r="R90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -5864,8 +7781,29 @@
       <c r="R91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -5920,8 +7858,29 @@
       <c r="R92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0.5</v>
+      </c>
+      <c r="X92">
+        <v>0.5</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -5976,8 +7935,29 @@
       <c r="R93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -6032,8 +8012,29 @@
       <c r="R94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -6088,8 +8089,29 @@
       <c r="R95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0.5</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -6144,8 +8166,29 @@
       <c r="R96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>1</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -6200,8 +8243,29 @@
       <c r="R97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0.5</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -6256,8 +8320,29 @@
       <c r="R98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -6312,8 +8397,29 @@
       <c r="R99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0.5</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -6368,8 +8474,29 @@
       <c r="R100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0.5</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -6424,8 +8551,29 @@
       <c r="R101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -6480,8 +8628,29 @@
       <c r="R102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -6536,8 +8705,29 @@
       <c r="R103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0.5</v>
+      </c>
+      <c r="V103">
+        <v>0.5</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>1</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -6592,8 +8782,29 @@
       <c r="R104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>1</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -6648,8 +8859,29 @@
       <c r="R105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -6704,8 +8936,29 @@
       <c r="R106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -6760,8 +9013,29 @@
       <c r="R107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -6816,8 +9090,29 @@
       <c r="R108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0.5</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -6872,8 +9167,29 @@
       <c r="R109">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0.5</v>
+      </c>
+      <c r="V109">
+        <v>0.5</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0.5</v>
+      </c>
+      <c r="Y109">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -6928,8 +9244,29 @@
       <c r="R110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -6984,8 +9321,29 @@
       <c r="R111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -7038,6 +9396,27 @@
         <v>0</v>
       </c>
       <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
         <v>0</v>
       </c>
     </row>
@@ -7096,6 +9475,27 @@
       <c r="R113">
         <v>0</v>
       </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -7152,6 +9552,27 @@
       <c r="R114">
         <v>0</v>
       </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -7208,6 +9629,27 @@
       <c r="R115">
         <v>0</v>
       </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -7264,6 +9706,27 @@
       <c r="R116">
         <v>0</v>
       </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0.5</v>
+      </c>
+      <c r="V116">
+        <v>0.5</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -7320,6 +9783,27 @@
       <c r="R117">
         <v>0</v>
       </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>1</v>
+      </c>
+      <c r="V117">
+        <v>1</v>
+      </c>
+      <c r="W117">
+        <v>0.5</v>
+      </c>
+      <c r="X117">
+        <v>1</v>
+      </c>
+      <c r="Y117">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -7376,6 +9860,27 @@
       <c r="R118">
         <v>0</v>
       </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -7432,6 +9937,27 @@
       <c r="R119">
         <v>0</v>
       </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>1</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -7488,6 +10014,27 @@
       <c r="R120">
         <v>0</v>
       </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -7542,6 +10089,27 @@
         <v>0</v>
       </c>
       <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
         <v>0</v>
       </c>
     </row>
@@ -7615,32 +10183,32 @@
         <v>13</v>
       </c>
       <c r="S123">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(S2:S122)</f>
+        <v>11.5</v>
       </c>
       <c r="T123">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(T2:T121)</f>
+        <v>6.5</v>
       </c>
       <c r="U123">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(U2:U122)</f>
+        <v>10</v>
       </c>
       <c r="V123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="X123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Z123">
         <f t="shared" si="0"/>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>People are always asking you questions like “How are you?” or “Having a nice day?” for which they don’t really want the real answers.</t>
   </si>
@@ -462,6 +462,42 @@
   </si>
   <si>
     <t>IT49A</t>
+  </si>
+  <si>
+    <t>IT50B</t>
+  </si>
+  <si>
+    <t>IT51C</t>
+  </si>
+  <si>
+    <t>IT55A</t>
+  </si>
+  <si>
+    <t>IT56B</t>
+  </si>
+  <si>
+    <t>IT57C</t>
+  </si>
+  <si>
+    <t>IT61A</t>
+  </si>
+  <si>
+    <t>IT62B</t>
+  </si>
+  <si>
+    <t>IT63C</t>
+  </si>
+  <si>
+    <t>IT67A</t>
+  </si>
+  <si>
+    <t>IT68B</t>
+  </si>
+  <si>
+    <t>IT69C</t>
+  </si>
+  <si>
+    <t>IT73A</t>
   </si>
 </sst>
 </file>
@@ -783,9 +819,9 @@
   <dimension ref="A1:AL123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
+      <selection pane="topRight" activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +829,7 @@
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -872,8 +908,44 @@
       <c r="Z1" t="s">
         <v>145</v>
       </c>
+      <c r="AA1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -932,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -949,8 +1021,41 @@
       <c r="Y2">
         <v>0</v>
       </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1026,8 +1131,41 @@
       <c r="Y3">
         <v>0</v>
       </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1080,19 +1218,19 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0.5</v>
       </c>
       <c r="T4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W4">
         <v>0.5</v>
@@ -1103,8 +1241,41 @@
       <c r="Y4">
         <v>0</v>
       </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0.5</v>
+      </c>
+      <c r="AB4">
+        <v>0.5</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.5</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0.5</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1180,8 +1351,41 @@
       <c r="Y5">
         <v>0</v>
       </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1257,8 +1461,41 @@
       <c r="Y6">
         <v>0</v>
       </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0.5</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1334,8 +1571,41 @@
       <c r="Y7">
         <v>0</v>
       </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1411,8 +1681,41 @@
       <c r="Y8">
         <v>0</v>
       </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1488,8 +1791,41 @@
       <c r="Y9">
         <v>0</v>
       </c>
+      <c r="Z9">
+        <v>0.5</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1548,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1565,8 +1901,41 @@
       <c r="Y10">
         <v>0</v>
       </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0.5</v>
+      </c>
+      <c r="AD10">
+        <v>0.5</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0.5</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>0.5</v>
+      </c>
+      <c r="AI10">
+        <v>0.5</v>
+      </c>
+      <c r="AK10">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1642,8 +2011,41 @@
       <c r="Y11">
         <v>0.5</v>
       </c>
+      <c r="Z11">
+        <v>0.5</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>0.5</v>
+      </c>
+      <c r="AC11">
+        <v>0.5</v>
+      </c>
+      <c r="AD11">
+        <v>0.5</v>
+      </c>
+      <c r="AE11">
+        <v>0.5</v>
+      </c>
+      <c r="AF11">
+        <v>0.5</v>
+      </c>
+      <c r="AG11">
+        <v>0.5</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0.5</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1719,8 +2121,41 @@
       <c r="Y12">
         <v>0</v>
       </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0.5</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1796,8 +2231,41 @@
       <c r="Y13">
         <v>0</v>
       </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1873,8 +2341,41 @@
       <c r="Y14">
         <v>0</v>
       </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1950,8 +2451,41 @@
       <c r="Y15">
         <v>1</v>
       </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2027,8 +2561,41 @@
       <c r="Y16">
         <v>0</v>
       </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0.5</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2081,10 +2648,10 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2104,8 +2671,41 @@
       <c r="Y17">
         <v>0</v>
       </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2181,8 +2781,41 @@
       <c r="Y18">
         <v>0</v>
       </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2258,8 +2891,41 @@
       <c r="Y19">
         <v>0</v>
       </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2335,8 +3001,41 @@
       <c r="Y20">
         <v>0</v>
       </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2392,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2412,8 +3111,41 @@
       <c r="Y21">
         <v>0</v>
       </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0.5</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2489,8 +3221,41 @@
       <c r="Y22">
         <v>0</v>
       </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2566,8 +3331,41 @@
       <c r="Y23">
         <v>0</v>
       </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0.5</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2643,8 +3441,41 @@
       <c r="Y24">
         <v>0.5</v>
       </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2720,8 +3551,41 @@
       <c r="Y25">
         <v>0</v>
       </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0.5</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2797,8 +3661,41 @@
       <c r="Y26">
         <v>0</v>
       </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>0.5</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2874,8 +3771,41 @@
       <c r="Y27">
         <v>0</v>
       </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2951,8 +3881,41 @@
       <c r="Y28">
         <v>0</v>
       </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3008,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3028,8 +3991,41 @@
       <c r="Y29">
         <v>0</v>
       </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3105,8 +4101,41 @@
       <c r="Y30">
         <v>0</v>
       </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3182,8 +4211,41 @@
       <c r="Y31">
         <v>0</v>
       </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0.5</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3259,8 +4321,41 @@
       <c r="Y32">
         <v>0</v>
       </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3316,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3336,8 +4431,41 @@
       <c r="Y33">
         <v>0</v>
       </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0.5</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0.5</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0.5</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3413,8 +4541,41 @@
       <c r="Y34">
         <v>0</v>
       </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3473,7 +4634,7 @@
         <v>0.5</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3490,8 +4651,41 @@
       <c r="Y35">
         <v>0</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0.5</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0.5</v>
+      </c>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3547,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -3567,8 +4761,41 @@
       <c r="Y36">
         <v>0</v>
       </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3644,8 +4871,41 @@
       <c r="Y37">
         <v>0.5</v>
       </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0.5</v>
+      </c>
+      <c r="AG37">
+        <v>0.5</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3721,8 +4981,41 @@
       <c r="Y38">
         <v>0</v>
       </c>
+      <c r="Z38">
+        <v>0.5</v>
+      </c>
+      <c r="AA38">
+        <v>0.5</v>
+      </c>
+      <c r="AB38">
+        <v>0.5</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0.5</v>
+      </c>
+      <c r="AG38">
+        <v>0.5</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0.5</v>
+      </c>
+      <c r="AK38">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3798,8 +5091,41 @@
       <c r="Y39">
         <v>0</v>
       </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3875,8 +5201,41 @@
       <c r="Y40">
         <v>1</v>
       </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3952,8 +5311,41 @@
       <c r="Y41">
         <v>0</v>
       </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4029,8 +5421,41 @@
       <c r="Y42">
         <v>0</v>
       </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4106,8 +5531,41 @@
       <c r="Y43">
         <v>0</v>
       </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4183,8 +5641,41 @@
       <c r="Y44">
         <v>0</v>
       </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0.5</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4260,8 +5751,41 @@
       <c r="Y45">
         <v>0</v>
       </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4337,8 +5861,41 @@
       <c r="Y46">
         <v>0</v>
       </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4414,8 +5971,41 @@
       <c r="Y47">
         <v>0</v>
       </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4491,8 +6081,41 @@
       <c r="Y48">
         <v>0</v>
       </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4568,8 +6191,41 @@
       <c r="Y49">
         <v>0</v>
       </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0.5</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4645,8 +6301,41 @@
       <c r="Y50">
         <v>0</v>
       </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4722,8 +6411,41 @@
       <c r="Y51">
         <v>0</v>
       </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4776,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S52">
         <v>0.5</v>
@@ -4799,8 +6521,41 @@
       <c r="Y52">
         <v>0</v>
       </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4876,8 +6631,41 @@
       <c r="Y53">
         <v>0</v>
       </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0.5</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4953,8 +6741,41 @@
       <c r="Y54">
         <v>0</v>
       </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5030,8 +6851,41 @@
       <c r="Y55">
         <v>0</v>
       </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5084,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -5107,8 +6961,41 @@
       <c r="Y56">
         <v>0</v>
       </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0.5</v>
+      </c>
+      <c r="AI56">
+        <v>0.5</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5167,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -5184,8 +7071,41 @@
       <c r="Y57">
         <v>0</v>
       </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0.5</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>0.5</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5244,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5261,8 +7181,41 @@
       <c r="Y58">
         <v>0</v>
       </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0.5</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5338,8 +7291,41 @@
       <c r="Y59">
         <v>0</v>
       </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -5392,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -5415,8 +7401,41 @@
       <c r="Y60">
         <v>0</v>
       </c>
+      <c r="Z60">
+        <v>0.5</v>
+      </c>
+      <c r="AA60">
+        <v>0.5</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60">
+        <v>0.5</v>
+      </c>
+      <c r="AI60">
+        <v>0.5</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -5492,8 +7511,41 @@
       <c r="Y61">
         <v>0</v>
       </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0.5</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0.5</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -5569,8 +7621,41 @@
       <c r="Y62">
         <v>0</v>
       </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -5646,8 +7731,41 @@
       <c r="Y63">
         <v>0</v>
       </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -5723,8 +7841,41 @@
       <c r="Y64">
         <v>0</v>
       </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -5800,8 +7951,41 @@
       <c r="Y65">
         <v>0</v>
       </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -5877,8 +8061,41 @@
       <c r="Y66">
         <v>0</v>
       </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0.5</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>0.5</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0.5</v>
+      </c>
+      <c r="AG66">
+        <v>0.5</v>
+      </c>
+      <c r="AH66">
+        <v>0.5</v>
+      </c>
+      <c r="AI66">
+        <v>0.5</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -5954,8 +8171,41 @@
       <c r="Y67">
         <v>0</v>
       </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -6031,8 +8281,41 @@
       <c r="Y68">
         <v>1</v>
       </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>1</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -6108,8 +8391,41 @@
       <c r="Y69">
         <v>0</v>
       </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -6185,8 +8501,41 @@
       <c r="Y70">
         <v>0</v>
       </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -6262,8 +8611,41 @@
       <c r="Y71">
         <v>0</v>
       </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -6339,8 +8721,41 @@
       <c r="Y72">
         <v>0</v>
       </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AC72">
+        <v>1</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -6416,8 +8831,41 @@
       <c r="Y73">
         <v>0</v>
       </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -6470,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -6493,8 +8941,41 @@
       <c r="Y74">
         <v>0</v>
       </c>
+      <c r="Z74">
+        <v>0.5</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>0.5</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -6570,8 +9051,41 @@
       <c r="Y75">
         <v>0</v>
       </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0.5</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0.5</v>
+      </c>
+      <c r="AG75">
+        <v>0.5</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -6647,8 +9161,41 @@
       <c r="Y76">
         <v>1</v>
       </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -6724,8 +9271,41 @@
       <c r="Y77">
         <v>0</v>
       </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -6801,8 +9381,41 @@
       <c r="Y78">
         <v>0</v>
       </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -6878,8 +9491,41 @@
       <c r="Y79">
         <v>0</v>
       </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -6955,8 +9601,41 @@
       <c r="Y80">
         <v>0</v>
       </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0.5</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0.5</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -7032,8 +9711,41 @@
       <c r="Y81">
         <v>0</v>
       </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -7109,8 +9821,41 @@
       <c r="Y82">
         <v>0</v>
       </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>1</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -7186,8 +9931,41 @@
       <c r="Y83">
         <v>0</v>
       </c>
+      <c r="Z83">
+        <v>0.5</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0.5</v>
+      </c>
+      <c r="AH83">
+        <v>0.5</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -7263,8 +10041,41 @@
       <c r="Y84">
         <v>0</v>
       </c>
+      <c r="Z84">
+        <v>0.5</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0.5</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0.5</v>
+      </c>
+      <c r="AG84">
+        <v>1</v>
+      </c>
+      <c r="AH84">
+        <v>1</v>
+      </c>
+      <c r="AI84">
+        <v>0.5</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -7340,8 +10151,41 @@
       <c r="Y85">
         <v>0</v>
       </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0.5</v>
+      </c>
+      <c r="AG85">
+        <v>0.5</v>
+      </c>
+      <c r="AH85">
+        <v>0.5</v>
+      </c>
+      <c r="AI85">
+        <v>0.5</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -7417,8 +10261,41 @@
       <c r="Y86">
         <v>0</v>
       </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -7471,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -7494,8 +10371,41 @@
       <c r="Y87">
         <v>0</v>
       </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>1</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -7571,8 +10481,41 @@
       <c r="Y88">
         <v>0</v>
       </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -7648,8 +10591,41 @@
       <c r="Y89">
         <v>0</v>
       </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0.5</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -7725,8 +10701,41 @@
       <c r="Y90">
         <v>0</v>
       </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>1</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -7802,8 +10811,41 @@
       <c r="Y91">
         <v>0</v>
       </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -7879,8 +10921,41 @@
       <c r="Y92">
         <v>0</v>
       </c>
+      <c r="Z92">
+        <v>1</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>1</v>
+      </c>
+      <c r="AD92">
+        <v>0.5</v>
+      </c>
+      <c r="AE92">
+        <v>0.5</v>
+      </c>
+      <c r="AF92">
+        <v>0.5</v>
+      </c>
+      <c r="AG92">
+        <v>1</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0.5</v>
+      </c>
+      <c r="AK92">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -7956,8 +11031,41 @@
       <c r="Y93">
         <v>0</v>
       </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>1</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -8033,8 +11141,41 @@
       <c r="Y94">
         <v>0</v>
       </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -8110,8 +11251,41 @@
       <c r="Y95">
         <v>0</v>
       </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -8187,8 +11361,41 @@
       <c r="Y96">
         <v>0</v>
       </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0.5</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -8264,8 +11471,41 @@
       <c r="Y97">
         <v>0</v>
       </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>1</v>
+      </c>
+      <c r="AD97">
+        <v>1</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
+      <c r="AF97">
+        <v>1</v>
+      </c>
+      <c r="AG97">
+        <v>1</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>1</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -8341,8 +11581,41 @@
       <c r="Y98">
         <v>0</v>
       </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0.5</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -8418,8 +11691,41 @@
       <c r="Y99">
         <v>0</v>
       </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0.5</v>
+      </c>
+      <c r="AD99">
+        <v>0.5</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
+      </c>
+      <c r="AF99">
+        <v>0.5</v>
+      </c>
+      <c r="AG99">
+        <v>0.5</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0.5</v>
+      </c>
+      <c r="AK99">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -8495,8 +11801,41 @@
       <c r="Y100">
         <v>0</v>
       </c>
+      <c r="Z100">
+        <v>0.5</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0.5</v>
+      </c>
+      <c r="AC100">
+        <v>0.5</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0.5</v>
+      </c>
+      <c r="AF100">
+        <v>0.5</v>
+      </c>
+      <c r="AG100">
+        <v>0.5</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -8572,8 +11911,41 @@
       <c r="Y101">
         <v>0</v>
       </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -8649,8 +12021,41 @@
       <c r="Y102">
         <v>0</v>
       </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0.5</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -8715,7 +12120,7 @@
         <v>0.5</v>
       </c>
       <c r="V103">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W103">
         <v>0</v>
@@ -8726,8 +12131,41 @@
       <c r="Y103">
         <v>0</v>
       </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>1</v>
+      </c>
+      <c r="AC103">
+        <v>1</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>1</v>
+      </c>
+      <c r="AG103">
+        <v>0.5</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>1</v>
+      </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -8803,8 +12241,41 @@
       <c r="Y104">
         <v>0</v>
       </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>1</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>1</v>
+      </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -8880,8 +12351,41 @@
       <c r="Y105">
         <v>0</v>
       </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -8957,8 +12461,41 @@
       <c r="Y106">
         <v>0</v>
       </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>0.5</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <v>0</v>
+      </c>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -9034,8 +12571,41 @@
       <c r="Y107">
         <v>0</v>
       </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -9111,8 +12681,41 @@
       <c r="Y108">
         <v>0</v>
       </c>
+      <c r="Z108">
+        <v>0.5</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -9188,8 +12791,41 @@
       <c r="Y109">
         <v>0.5</v>
       </c>
+      <c r="Z109">
+        <v>0.5</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>1</v>
+      </c>
+      <c r="AD109">
+        <v>0.5</v>
+      </c>
+      <c r="AE109">
+        <v>0.5</v>
+      </c>
+      <c r="AF109">
+        <v>1</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0.5</v>
+      </c>
+      <c r="AK109">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -9265,8 +12901,41 @@
       <c r="Y110">
         <v>0</v>
       </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -9342,8 +13011,41 @@
       <c r="Y111">
         <v>0</v>
       </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -9417,6 +13119,39 @@
         <v>0</v>
       </c>
       <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>0</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
         <v>0</v>
       </c>
     </row>
@@ -9496,6 +13231,39 @@
       <c r="Y113">
         <v>0</v>
       </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -9573,6 +13341,39 @@
       <c r="Y114">
         <v>0</v>
       </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>0</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -9650,6 +13451,39 @@
       <c r="Y115">
         <v>0</v>
       </c>
+      <c r="Z115">
+        <v>1</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>1</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>1</v>
+      </c>
+      <c r="AF115">
+        <v>1</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -9727,6 +13561,39 @@
       <c r="Y116">
         <v>0</v>
       </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <v>0</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -9804,6 +13671,39 @@
       <c r="Y117">
         <v>0.5</v>
       </c>
+      <c r="Z117">
+        <v>0.5</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>0.5</v>
+      </c>
+      <c r="AC117">
+        <v>1</v>
+      </c>
+      <c r="AD117">
+        <v>0.5</v>
+      </c>
+      <c r="AE117">
+        <v>1</v>
+      </c>
+      <c r="AF117">
+        <v>0.5</v>
+      </c>
+      <c r="AG117">
+        <v>0</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>1</v>
+      </c>
+      <c r="AK117">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -9881,6 +13781,39 @@
       <c r="Y118">
         <v>0</v>
       </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0.5</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -9947,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="V119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W119">
         <v>0</v>
@@ -9956,6 +13889,39 @@
         <v>0</v>
       </c>
       <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>1</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0.5</v>
+      </c>
+      <c r="AK119">
         <v>0</v>
       </c>
     </row>
@@ -10035,6 +14001,39 @@
       <c r="Y120">
         <v>0</v>
       </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>1</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -10110,6 +14109,39 @@
         <v>0</v>
       </c>
       <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
         <v>0</v>
       </c>
     </row>
@@ -10180,15 +14212,15 @@
       </c>
       <c r="R123">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="S123">
         <f>SUM(S2:S122)</f>
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="T123">
         <f>SUM(T2:T121)</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U123">
         <f>SUM(U2:U122)</f>
@@ -10196,7 +14228,7 @@
       </c>
       <c r="V123">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W123">
         <f t="shared" si="0"/>
@@ -10212,43 +14244,43 @@
       </c>
       <c r="Z123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AA123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AB123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AI123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ123">
         <f t="shared" si="0"/>
@@ -10256,7 +14288,7 @@
       </c>
       <c r="AK123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL123">
         <f t="shared" si="0"/>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>People are always asking you questions like “How are you?” or “Having a nice day?” for which they don’t really want the real answers.</t>
   </si>
@@ -499,6 +499,24 @@
   <si>
     <t>IT73A</t>
   </si>
+  <si>
+    <t>IT74B</t>
+  </si>
+  <si>
+    <t>IT75C</t>
+  </si>
+  <si>
+    <t>IT79A</t>
+  </si>
+  <si>
+    <t>IT80B</t>
+  </si>
+  <si>
+    <t>IT81C</t>
+  </si>
+  <si>
+    <t>IT85A</t>
+  </si>
 </sst>
 </file>
 
@@ -816,20 +834,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL123"/>
+  <dimension ref="A1:AR123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="AL2" sqref="AL2"/>
+      <selection pane="topRight" activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -944,8 +962,26 @@
       <c r="AL1" t="s">
         <v>157</v>
       </c>
+      <c r="AM1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1051,11 +1087,29 @@
       <c r="AI2">
         <v>0</v>
       </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
       <c r="AK2">
         <v>0</v>
       </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1161,11 +1215,29 @@
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
       <c r="AK3">
         <v>0</v>
       </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1271,11 +1343,29 @@
       <c r="AI4">
         <v>0</v>
       </c>
+      <c r="AJ4">
+        <v>0.5</v>
+      </c>
       <c r="AK4">
         <v>0.5</v>
       </c>
+      <c r="AL4">
+        <v>0.5</v>
+      </c>
+      <c r="AM4">
+        <v>0.5</v>
+      </c>
+      <c r="AO4">
+        <v>0.5</v>
+      </c>
+      <c r="AP4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1381,11 +1471,29 @@
       <c r="AI5">
         <v>0</v>
       </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
       <c r="AK5">
         <v>0</v>
       </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1491,11 +1599,29 @@
       <c r="AI6">
         <v>0</v>
       </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
       <c r="AK6">
         <v>0.5</v>
       </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1601,11 +1727,29 @@
       <c r="AI7">
         <v>0</v>
       </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
       <c r="AK7">
         <v>0.5</v>
       </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1711,11 +1855,29 @@
       <c r="AI8">
         <v>0</v>
       </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
       <c r="AK8">
         <v>1</v>
       </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1821,11 +1983,29 @@
       <c r="AI9">
         <v>0</v>
       </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
       <c r="AK9">
         <v>0</v>
       </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1931,11 +2111,29 @@
       <c r="AI10">
         <v>0.5</v>
       </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
       <c r="AK10">
         <v>0.5</v>
       </c>
+      <c r="AL10">
+        <v>0.5</v>
+      </c>
+      <c r="AM10">
+        <v>0.5</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2041,11 +2239,29 @@
       <c r="AI11">
         <v>0.5</v>
       </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
       <c r="AK11">
         <v>0</v>
       </c>
+      <c r="AL11">
+        <v>0.5</v>
+      </c>
+      <c r="AM11">
+        <v>0.5</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0.5</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2151,11 +2367,29 @@
       <c r="AI12">
         <v>0</v>
       </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
       <c r="AK12">
         <v>0</v>
       </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0.5</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2261,11 +2495,29 @@
       <c r="AI13">
         <v>0</v>
       </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
       <c r="AK13">
         <v>0</v>
       </c>
+      <c r="AL13">
+        <v>0.5</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2371,11 +2623,29 @@
       <c r="AI14">
         <v>0</v>
       </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
       <c r="AK14">
         <v>0</v>
       </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2481,11 +2751,29 @@
       <c r="AI15">
         <v>0</v>
       </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
       <c r="AK15">
         <v>0</v>
       </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2591,11 +2879,29 @@
       <c r="AI16">
         <v>0</v>
       </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
       <c r="AK16">
         <v>0</v>
       </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2701,11 +3007,29 @@
       <c r="AI17">
         <v>0</v>
       </c>
+      <c r="AJ17">
+        <v>0.5</v>
+      </c>
       <c r="AK17">
         <v>0</v>
       </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0.5</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2811,11 +3135,29 @@
       <c r="AI18">
         <v>0</v>
       </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
       <c r="AK18">
         <v>0</v>
       </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2921,11 +3263,29 @@
       <c r="AI19">
         <v>0</v>
       </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
       <c r="AK19">
         <v>0</v>
       </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3031,11 +3391,29 @@
       <c r="AI20">
         <v>0</v>
       </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
       <c r="AK20">
         <v>0</v>
       </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3141,11 +3519,29 @@
       <c r="AI21">
         <v>0</v>
       </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
       <c r="AK21">
         <v>0</v>
       </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0.5</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3251,11 +3647,29 @@
       <c r="AI22">
         <v>0</v>
       </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
       <c r="AK22">
         <v>0</v>
       </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3361,11 +3775,29 @@
       <c r="AI23">
         <v>0</v>
       </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
       <c r="AK23">
         <v>0</v>
       </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0.5</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3471,11 +3903,29 @@
       <c r="AI24">
         <v>0</v>
       </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
       <c r="AK24">
         <v>0</v>
       </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3581,11 +4031,29 @@
       <c r="AI25">
         <v>0</v>
       </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
       <c r="AK25">
         <v>0</v>
       </c>
+      <c r="AL25">
+        <v>0.5</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3691,11 +4159,29 @@
       <c r="AI26">
         <v>0</v>
       </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
       <c r="AK26">
         <v>0</v>
       </c>
+      <c r="AL26">
+        <v>0.5</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0.5</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3801,11 +4287,29 @@
       <c r="AI27">
         <v>0</v>
       </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
       <c r="AK27">
         <v>0</v>
       </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3911,11 +4415,29 @@
       <c r="AI28">
         <v>0</v>
       </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
       <c r="AK28">
         <v>0</v>
       </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4021,11 +4543,29 @@
       <c r="AI29">
         <v>0</v>
       </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
       <c r="AK29">
         <v>0</v>
       </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0.5</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4131,11 +4671,29 @@
       <c r="AI30">
         <v>0</v>
       </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
       <c r="AK30">
         <v>0</v>
       </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4241,11 +4799,29 @@
       <c r="AI31">
         <v>0</v>
       </c>
+      <c r="AJ31">
+        <v>0.5</v>
+      </c>
       <c r="AK31">
         <v>0</v>
       </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4351,11 +4927,29 @@
       <c r="AI32">
         <v>0</v>
       </c>
+      <c r="AJ32">
+        <v>0.5</v>
+      </c>
       <c r="AK32">
         <v>0</v>
       </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0.5</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4461,11 +5055,29 @@
       <c r="AI33">
         <v>0</v>
       </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
       <c r="AK33">
         <v>0</v>
       </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0.5</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4571,11 +5183,29 @@
       <c r="AI34">
         <v>0</v>
       </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
       <c r="AK34">
         <v>0</v>
       </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4681,11 +5311,29 @@
       <c r="AI35">
         <v>0</v>
       </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
       <c r="AK35">
         <v>0.5</v>
       </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4791,11 +5439,29 @@
       <c r="AI36">
         <v>0</v>
       </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
       <c r="AK36">
         <v>0</v>
       </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4901,11 +5567,29 @@
       <c r="AI37">
         <v>0</v>
       </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
       <c r="AK37">
         <v>0.5</v>
       </c>
+      <c r="AL37">
+        <v>0.5</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0.5</v>
+      </c>
+      <c r="AP37">
+        <v>0.5</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5011,11 +5695,29 @@
       <c r="AI38">
         <v>0.5</v>
       </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
       <c r="AK38">
         <v>0.5</v>
       </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5121,11 +5823,29 @@
       <c r="AI39">
         <v>0</v>
       </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
       <c r="AK39">
         <v>0</v>
       </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5231,11 +5951,29 @@
       <c r="AI40">
         <v>0</v>
       </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
       <c r="AK40">
         <v>0</v>
       </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5341,11 +6079,29 @@
       <c r="AI41">
         <v>0</v>
       </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
       <c r="AK41">
         <v>0</v>
       </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5451,11 +6207,29 @@
       <c r="AI42">
         <v>0</v>
       </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
       <c r="AK42">
         <v>0</v>
       </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5561,11 +6335,29 @@
       <c r="AI43">
         <v>0</v>
       </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
       <c r="AK43">
         <v>0</v>
       </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5671,11 +6463,29 @@
       <c r="AI44">
         <v>0</v>
       </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
       <c r="AK44">
         <v>0</v>
       </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5781,11 +6591,29 @@
       <c r="AI45">
         <v>0</v>
       </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
       <c r="AK45">
         <v>0</v>
       </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5891,11 +6719,29 @@
       <c r="AI46">
         <v>0</v>
       </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
       <c r="AK46">
         <v>0</v>
       </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -6001,11 +6847,29 @@
       <c r="AI47">
         <v>0</v>
       </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
       <c r="AK47">
         <v>0</v>
       </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0.5</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -6111,11 +6975,29 @@
       <c r="AI48">
         <v>0</v>
       </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
       <c r="AK48">
         <v>0</v>
       </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6221,11 +7103,29 @@
       <c r="AI49">
         <v>0</v>
       </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
       <c r="AK49">
         <v>0</v>
       </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -6331,11 +7231,29 @@
       <c r="AI50">
         <v>0</v>
       </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
       <c r="AK50">
         <v>0.5</v>
       </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6441,11 +7359,29 @@
       <c r="AI51">
         <v>0</v>
       </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
       <c r="AK51">
         <v>0</v>
       </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6551,11 +7487,29 @@
       <c r="AI52">
         <v>0</v>
       </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
       <c r="AK52">
         <v>0</v>
       </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -6661,11 +7615,29 @@
       <c r="AI53">
         <v>0</v>
       </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
       <c r="AK53">
         <v>0</v>
       </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6771,11 +7743,29 @@
       <c r="AI54">
         <v>0</v>
       </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
       <c r="AK54">
         <v>0</v>
       </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -6881,11 +7871,29 @@
       <c r="AI55">
         <v>0</v>
       </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
       <c r="AK55">
         <v>0</v>
       </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6991,11 +7999,29 @@
       <c r="AI56">
         <v>0.5</v>
       </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
       <c r="AK56">
         <v>0</v>
       </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -7101,11 +8127,29 @@
       <c r="AI57">
         <v>0</v>
       </c>
+      <c r="AJ57">
+        <v>1</v>
+      </c>
       <c r="AK57">
         <v>0</v>
       </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -7211,11 +8255,29 @@
       <c r="AI58">
         <v>0</v>
       </c>
+      <c r="AJ58">
+        <v>0.5</v>
+      </c>
       <c r="AK58">
         <v>0</v>
       </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -7321,11 +8383,29 @@
       <c r="AI59">
         <v>0</v>
       </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
       <c r="AK59">
         <v>0</v>
       </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -7431,11 +8511,29 @@
       <c r="AI60">
         <v>0.5</v>
       </c>
+      <c r="AJ60">
+        <v>0.5</v>
+      </c>
       <c r="AK60">
         <v>0</v>
       </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -7541,11 +8639,29 @@
       <c r="AI61">
         <v>0</v>
       </c>
+      <c r="AJ61">
+        <v>0.5</v>
+      </c>
       <c r="AK61">
         <v>0</v>
       </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -7651,11 +8767,29 @@
       <c r="AI62">
         <v>0</v>
       </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
       <c r="AK62">
         <v>0</v>
       </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -7761,11 +8895,29 @@
       <c r="AI63">
         <v>0</v>
       </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
       <c r="AK63">
         <v>0</v>
       </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7871,11 +9023,29 @@
       <c r="AI64">
         <v>0</v>
       </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
       <c r="AK64">
         <v>0</v>
       </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -7981,11 +9151,29 @@
       <c r="AI65">
         <v>0</v>
       </c>
+      <c r="AJ65">
+        <v>1</v>
+      </c>
       <c r="AK65">
         <v>0</v>
       </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -8091,11 +9279,29 @@
       <c r="AI66">
         <v>0.5</v>
       </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
       <c r="AK66">
         <v>0</v>
       </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0.5</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -8201,11 +9407,29 @@
       <c r="AI67">
         <v>0</v>
       </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
       <c r="AK67">
         <v>0</v>
       </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -8311,11 +9535,29 @@
       <c r="AI68">
         <v>1</v>
       </c>
+      <c r="AJ68">
+        <v>1</v>
+      </c>
       <c r="AK68">
         <v>0</v>
       </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -8421,11 +9663,29 @@
       <c r="AI69">
         <v>0</v>
       </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
       <c r="AK69">
         <v>0</v>
       </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -8531,11 +9791,29 @@
       <c r="AI70">
         <v>0</v>
       </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
       <c r="AK70">
         <v>0</v>
       </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -8641,11 +9919,29 @@
       <c r="AI71">
         <v>0</v>
       </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
       <c r="AK71">
         <v>0</v>
       </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -8751,11 +10047,29 @@
       <c r="AI72">
         <v>0</v>
       </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
       <c r="AK72">
         <v>1</v>
       </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -8861,11 +10175,29 @@
       <c r="AI73">
         <v>0</v>
       </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
       <c r="AK73">
         <v>0</v>
       </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -8971,11 +10303,29 @@
       <c r="AI74">
         <v>0</v>
       </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
       <c r="AK74">
         <v>0</v>
       </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -9081,11 +10431,29 @@
       <c r="AI75">
         <v>0</v>
       </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
       <c r="AK75">
         <v>0</v>
       </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -9191,11 +10559,29 @@
       <c r="AI76">
         <v>0</v>
       </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
       <c r="AK76">
         <v>0</v>
       </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -9301,11 +10687,29 @@
       <c r="AI77">
         <v>0</v>
       </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
       <c r="AK77">
         <v>0</v>
       </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -9411,11 +10815,29 @@
       <c r="AI78">
         <v>0</v>
       </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
       <c r="AK78">
         <v>0</v>
       </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -9521,11 +10943,29 @@
       <c r="AI79">
         <v>0</v>
       </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
       <c r="AK79">
         <v>0</v>
       </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -9631,11 +11071,29 @@
       <c r="AI80">
         <v>0</v>
       </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
       <c r="AK80">
         <v>0</v>
       </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -9741,11 +11199,29 @@
       <c r="AI81">
         <v>0</v>
       </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
       <c r="AK81">
         <v>0</v>
       </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -9851,11 +11327,29 @@
       <c r="AI82">
         <v>0</v>
       </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
       <c r="AK82">
         <v>0</v>
       </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -9961,11 +11455,29 @@
       <c r="AI83">
         <v>0</v>
       </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
       <c r="AK83">
         <v>0</v>
       </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -10071,11 +11583,29 @@
       <c r="AI84">
         <v>0.5</v>
       </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
       <c r="AK84">
         <v>0</v>
       </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -10181,11 +11711,29 @@
       <c r="AI85">
         <v>0.5</v>
       </c>
+      <c r="AJ85">
+        <v>0.5</v>
+      </c>
       <c r="AK85">
         <v>0</v>
       </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -10291,11 +11839,29 @@
       <c r="AI86">
         <v>0</v>
       </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
       <c r="AK86">
         <v>0</v>
       </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -10401,11 +11967,29 @@
       <c r="AI87">
         <v>0</v>
       </c>
+      <c r="AJ87">
+        <v>1</v>
+      </c>
       <c r="AK87">
         <v>0</v>
       </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+      <c r="AQ87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -10511,11 +12095,29 @@
       <c r="AI88">
         <v>0</v>
       </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
       <c r="AK88">
         <v>0</v>
       </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -10621,11 +12223,29 @@
       <c r="AI89">
         <v>0</v>
       </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
       <c r="AK89">
         <v>0.5</v>
       </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>0</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -10731,11 +12351,29 @@
       <c r="AI90">
         <v>1</v>
       </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
       <c r="AK90">
         <v>0</v>
       </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -10841,11 +12479,29 @@
       <c r="AI91">
         <v>0</v>
       </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
       <c r="AK91">
         <v>0</v>
       </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -10951,11 +12607,29 @@
       <c r="AI92">
         <v>0.5</v>
       </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
       <c r="AK92">
         <v>0.5</v>
       </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0.5</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -11061,11 +12735,29 @@
       <c r="AI93">
         <v>0</v>
       </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
       <c r="AK93">
         <v>0</v>
       </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0.5</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
+      <c r="AQ93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -11171,11 +12863,29 @@
       <c r="AI94">
         <v>0</v>
       </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
       <c r="AK94">
         <v>0</v>
       </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>0</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -11281,11 +12991,29 @@
       <c r="AI95">
         <v>0</v>
       </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
       <c r="AK95">
         <v>0</v>
       </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
+      <c r="AQ95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -11391,11 +13119,29 @@
       <c r="AI96">
         <v>0</v>
       </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
       <c r="AK96">
         <v>0</v>
       </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>0</v>
+      </c>
+      <c r="AQ96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -11501,11 +13247,29 @@
       <c r="AI97">
         <v>1</v>
       </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
       <c r="AK97">
         <v>1</v>
       </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>0</v>
+      </c>
+      <c r="AP97">
+        <v>0</v>
+      </c>
+      <c r="AQ97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -11611,11 +13375,29 @@
       <c r="AI98">
         <v>0.5</v>
       </c>
+      <c r="AJ98">
+        <v>0.5</v>
+      </c>
       <c r="AK98">
         <v>0</v>
       </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>0</v>
+      </c>
+      <c r="AQ98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -11721,11 +13503,29 @@
       <c r="AI99">
         <v>0.5</v>
       </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
       <c r="AK99">
         <v>0.5</v>
       </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>0</v>
+      </c>
+      <c r="AQ99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -11831,11 +13631,29 @@
       <c r="AI100">
         <v>0</v>
       </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
       <c r="AK100">
         <v>0</v>
       </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0.5</v>
+      </c>
+      <c r="AO100">
+        <v>0</v>
+      </c>
+      <c r="AP100">
+        <v>0</v>
+      </c>
+      <c r="AQ100">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -11941,11 +13759,29 @@
       <c r="AI101">
         <v>0</v>
       </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
       <c r="AK101">
         <v>0</v>
       </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AP101">
+        <v>0</v>
+      </c>
+      <c r="AQ101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -12051,11 +13887,29 @@
       <c r="AI102">
         <v>0</v>
       </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
       <c r="AK102">
         <v>0</v>
       </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AP102">
+        <v>0</v>
+      </c>
+      <c r="AQ102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -12161,11 +14015,29 @@
       <c r="AI103">
         <v>0</v>
       </c>
+      <c r="AJ103">
+        <v>0.5</v>
+      </c>
       <c r="AK103">
         <v>1</v>
       </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
+        <v>0.5</v>
+      </c>
+      <c r="AP103">
+        <v>0</v>
+      </c>
+      <c r="AQ103">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -12271,11 +14143,29 @@
       <c r="AI104">
         <v>0</v>
       </c>
+      <c r="AJ104">
+        <v>0.5</v>
+      </c>
       <c r="AK104">
         <v>1</v>
       </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>0</v>
+      </c>
+      <c r="AQ104">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -12381,11 +14271,29 @@
       <c r="AI105">
         <v>0</v>
       </c>
+      <c r="AJ105">
+        <v>0</v>
+      </c>
       <c r="AK105">
         <v>0</v>
       </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
+      <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AO105">
+        <v>0</v>
+      </c>
+      <c r="AP105">
+        <v>0</v>
+      </c>
+      <c r="AQ105">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -12491,11 +14399,29 @@
       <c r="AI106">
         <v>0</v>
       </c>
+      <c r="AJ106">
+        <v>0</v>
+      </c>
       <c r="AK106">
         <v>0</v>
       </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AO106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>0</v>
+      </c>
+      <c r="AQ106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -12601,11 +14527,29 @@
       <c r="AI107">
         <v>0</v>
       </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
       <c r="AK107">
         <v>0</v>
       </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>0</v>
+      </c>
+      <c r="AQ107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -12711,11 +14655,29 @@
       <c r="AI108">
         <v>0</v>
       </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
       <c r="AK108">
         <v>0</v>
       </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>0</v>
+      </c>
+      <c r="AQ108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -12821,11 +14783,29 @@
       <c r="AI109">
         <v>0.5</v>
       </c>
+      <c r="AJ109">
+        <v>0.5</v>
+      </c>
       <c r="AK109">
         <v>0.5</v>
       </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
+      <c r="AP109">
+        <v>0</v>
+      </c>
+      <c r="AQ109">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -12931,11 +14911,29 @@
       <c r="AI110">
         <v>0</v>
       </c>
+      <c r="AJ110">
+        <v>1</v>
+      </c>
       <c r="AK110">
         <v>0</v>
       </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -13041,11 +15039,29 @@
       <c r="AI111">
         <v>0</v>
       </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
       <c r="AK111">
         <v>0</v>
       </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>0.5</v>
+      </c>
+      <c r="AO111">
+        <v>0.5</v>
+      </c>
+      <c r="AP111">
+        <v>0</v>
+      </c>
+      <c r="AQ111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -13151,11 +15167,29 @@
       <c r="AI112">
         <v>0</v>
       </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
       <c r="AK112">
         <v>0</v>
       </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AO112">
+        <v>0</v>
+      </c>
+      <c r="AP112">
+        <v>0</v>
+      </c>
+      <c r="AQ112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -13261,11 +15295,29 @@
       <c r="AI113">
         <v>0</v>
       </c>
+      <c r="AJ113">
+        <v>0</v>
+      </c>
       <c r="AK113">
         <v>0</v>
       </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AO113">
+        <v>0</v>
+      </c>
+      <c r="AP113">
+        <v>0</v>
+      </c>
+      <c r="AQ113">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -13371,11 +15423,29 @@
       <c r="AI114">
         <v>0</v>
       </c>
+      <c r="AJ114">
+        <v>0</v>
+      </c>
       <c r="AK114">
         <v>0</v>
       </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>0</v>
+      </c>
+      <c r="AQ114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -13481,11 +15551,29 @@
       <c r="AI115">
         <v>0</v>
       </c>
+      <c r="AJ115">
+        <v>0</v>
+      </c>
       <c r="AK115">
         <v>0</v>
       </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
+      <c r="AQ115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -13556,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="X116">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y116">
         <v>0</v>
@@ -13591,11 +15679,29 @@
       <c r="AI116">
         <v>0</v>
       </c>
+      <c r="AJ116">
+        <v>0.5</v>
+      </c>
       <c r="AK116">
         <v>0</v>
       </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0.5</v>
+      </c>
+      <c r="AO116">
+        <v>0.5</v>
+      </c>
+      <c r="AP116">
+        <v>0</v>
+      </c>
+      <c r="AQ116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -13701,11 +15807,29 @@
       <c r="AI117">
         <v>1</v>
       </c>
+      <c r="AJ117">
+        <v>1</v>
+      </c>
       <c r="AK117">
         <v>1</v>
       </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
+        <v>0</v>
+      </c>
+      <c r="AP117">
+        <v>0</v>
+      </c>
+      <c r="AQ117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -13811,11 +15935,29 @@
       <c r="AI118">
         <v>0.5</v>
       </c>
+      <c r="AJ118">
+        <v>0</v>
+      </c>
       <c r="AK118">
         <v>0</v>
       </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>0</v>
+      </c>
+      <c r="AP118">
+        <v>0</v>
+      </c>
+      <c r="AQ118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -13921,11 +16063,29 @@
       <c r="AI119">
         <v>0.5</v>
       </c>
+      <c r="AJ119">
+        <v>0</v>
+      </c>
       <c r="AK119">
         <v>0</v>
       </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AO119">
+        <v>0</v>
+      </c>
+      <c r="AP119">
+        <v>0</v>
+      </c>
+      <c r="AQ119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -14031,11 +16191,29 @@
       <c r="AI120">
         <v>0</v>
       </c>
+      <c r="AJ120">
+        <v>0</v>
+      </c>
       <c r="AK120">
         <v>0</v>
       </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>0</v>
+      </c>
+      <c r="AQ120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -14141,11 +16319,29 @@
       <c r="AI121">
         <v>0</v>
       </c>
+      <c r="AJ121">
+        <v>0</v>
+      </c>
       <c r="AK121">
         <v>0</v>
       </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B123">
         <f>SUM(B2:B122)</f>
         <v>24</v>
@@ -14236,7 +16432,7 @@
       </c>
       <c r="X123">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y123">
         <f t="shared" si="0"/>
@@ -14284,7 +16480,7 @@
       </c>
       <c r="AJ123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK123">
         <f t="shared" si="0"/>
@@ -14292,7 +16488,27 @@
       </c>
       <c r="AL123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5</v>
+      </c>
+      <c r="AM123">
+        <f>SUM(AM3:AM121)</f>
+        <v>11.5</v>
+      </c>
+      <c r="AN123">
+        <f>SUM(AN2:AN121)</f>
+        <v>0</v>
+      </c>
+      <c r="AO123">
+        <f>SUM(AO2:AO121)</f>
+        <v>13</v>
+      </c>
+      <c r="AP123">
+        <f>SUM(AP2:AP121)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AQ123">
+        <f>SUM(AQ2:AQ121)</f>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>People are always asking you questions like “How are you?” or “Having a nice day?” for which they don’t really want the real answers.</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>IT49A</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -783,9 +786,9 @@
   <dimension ref="A1:AL123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,8 +913,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
+      <c r="M2" t="s">
+        <v>146</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2522,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2753,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4216,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4758,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5119,7 +5122,7 @@
         <v>0.5</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5371,10 +5374,10 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -6505,7 +6508,7 @@
         <v>0.5</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -8528,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -9067,7 +9070,7 @@
         <v>0.5</v>
       </c>
       <c r="K108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -9286,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10124,7 +10127,7 @@
       </c>
       <c r="D123">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="E123">
         <f t="shared" si="0"/>
@@ -10136,7 +10139,7 @@
       </c>
       <c r="G123">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H123">
         <f t="shared" si="0"/>
@@ -10152,11 +10155,11 @@
       </c>
       <c r="K123">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="L123">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="M123">
         <f t="shared" si="0"/>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>People are always asking you questions like “How are you?” or “Having a nice day?” for which they don’t really want the real answers.</t>
   </si>
@@ -464,7 +464,40 @@
     <t>IT49A</t>
   </si>
   <si>
-    <t>`</t>
+    <t>IT50B</t>
+  </si>
+  <si>
+    <t>IT51C</t>
+  </si>
+  <si>
+    <t>IT55A</t>
+  </si>
+  <si>
+    <t>IT56B</t>
+  </si>
+  <si>
+    <t>IT57C</t>
+  </si>
+  <si>
+    <t>IT61A</t>
+  </si>
+  <si>
+    <t>IT62B</t>
+  </si>
+  <si>
+    <t>IT63C</t>
+  </si>
+  <si>
+    <t>IT67A</t>
+  </si>
+  <si>
+    <t>IT68B</t>
+  </si>
+  <si>
+    <t>IT69C</t>
+  </si>
+  <si>
+    <t>IT73A</t>
   </si>
 </sst>
 </file>
@@ -786,9 +819,9 @@
   <dimension ref="A1:AL123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="O2" sqref="O2"/>
+      <selection pane="topRight" activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +829,7 @@
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -875,8 +908,44 @@
       <c r="Z1" t="s">
         <v>145</v>
       </c>
+      <c r="AA1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -913,8 +982,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>146</v>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -935,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -952,8 +1021,41 @@
       <c r="Y2">
         <v>0</v>
       </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1029,8 +1131,41 @@
       <c r="Y3">
         <v>0</v>
       </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1083,19 +1218,19 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0.5</v>
       </c>
       <c r="T4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W4">
         <v>0.5</v>
@@ -1106,8 +1241,41 @@
       <c r="Y4">
         <v>0</v>
       </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0.5</v>
+      </c>
+      <c r="AB4">
+        <v>0.5</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.5</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0.5</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1351,41 @@
       <c r="Y5">
         <v>0</v>
       </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1260,8 +1461,41 @@
       <c r="Y6">
         <v>0</v>
       </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0.5</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1337,8 +1571,41 @@
       <c r="Y7">
         <v>0</v>
       </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1414,8 +1681,41 @@
       <c r="Y8">
         <v>0</v>
       </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1491,8 +1791,41 @@
       <c r="Y9">
         <v>0</v>
       </c>
+      <c r="Z9">
+        <v>0.5</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1551,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1568,8 +1901,41 @@
       <c r="Y10">
         <v>0</v>
       </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0.5</v>
+      </c>
+      <c r="AD10">
+        <v>0.5</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0.5</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>0.5</v>
+      </c>
+      <c r="AI10">
+        <v>0.5</v>
+      </c>
+      <c r="AK10">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1645,8 +2011,41 @@
       <c r="Y11">
         <v>0.5</v>
       </c>
+      <c r="Z11">
+        <v>0.5</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>0.5</v>
+      </c>
+      <c r="AC11">
+        <v>0.5</v>
+      </c>
+      <c r="AD11">
+        <v>0.5</v>
+      </c>
+      <c r="AE11">
+        <v>0.5</v>
+      </c>
+      <c r="AF11">
+        <v>0.5</v>
+      </c>
+      <c r="AG11">
+        <v>0.5</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0.5</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1722,8 +2121,41 @@
       <c r="Y12">
         <v>0</v>
       </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0.5</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1799,8 +2231,41 @@
       <c r="Y13">
         <v>0</v>
       </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1876,8 +2341,41 @@
       <c r="Y14">
         <v>0</v>
       </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1953,8 +2451,41 @@
       <c r="Y15">
         <v>1</v>
       </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2030,8 +2561,41 @@
       <c r="Y16">
         <v>0</v>
       </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0.5</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2084,10 +2648,10 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2107,8 +2671,41 @@
       <c r="Y17">
         <v>0</v>
       </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2184,8 +2781,41 @@
       <c r="Y18">
         <v>0</v>
       </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2261,8 +2891,41 @@
       <c r="Y19">
         <v>0</v>
       </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2338,8 +3001,41 @@
       <c r="Y20">
         <v>0</v>
       </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2395,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2415,8 +3111,41 @@
       <c r="Y21">
         <v>0</v>
       </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0.5</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2492,8 +3221,41 @@
       <c r="Y22">
         <v>0</v>
       </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2525,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2569,8 +3331,41 @@
       <c r="Y23">
         <v>0</v>
       </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0.5</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2646,8 +3441,41 @@
       <c r="Y24">
         <v>0.5</v>
       </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2723,8 +3551,41 @@
       <c r="Y25">
         <v>0</v>
       </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0.5</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2756,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2800,8 +3661,41 @@
       <c r="Y26">
         <v>0</v>
       </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>0.5</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2877,8 +3771,41 @@
       <c r="Y27">
         <v>0</v>
       </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2954,8 +3881,41 @@
       <c r="Y28">
         <v>0</v>
       </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3011,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3031,8 +3991,41 @@
       <c r="Y29">
         <v>0</v>
       </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3108,8 +4101,41 @@
       <c r="Y30">
         <v>0</v>
       </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3185,8 +4211,41 @@
       <c r="Y31">
         <v>0</v>
       </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0.5</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3262,8 +4321,41 @@
       <c r="Y32">
         <v>0</v>
       </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3319,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3339,8 +4431,41 @@
       <c r="Y33">
         <v>0</v>
       </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0.5</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0.5</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0.5</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3416,8 +4541,41 @@
       <c r="Y34">
         <v>0</v>
       </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3476,7 +4634,7 @@
         <v>0.5</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3493,8 +4651,41 @@
       <c r="Y35">
         <v>0</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0.5</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0.5</v>
+      </c>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3550,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -3570,8 +4761,41 @@
       <c r="Y36">
         <v>0</v>
       </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3647,8 +4871,41 @@
       <c r="Y37">
         <v>0.5</v>
       </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0.5</v>
+      </c>
+      <c r="AG37">
+        <v>0.5</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3724,8 +4981,41 @@
       <c r="Y38">
         <v>0</v>
       </c>
+      <c r="Z38">
+        <v>0.5</v>
+      </c>
+      <c r="AA38">
+        <v>0.5</v>
+      </c>
+      <c r="AB38">
+        <v>0.5</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0.5</v>
+      </c>
+      <c r="AG38">
+        <v>0.5</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0.5</v>
+      </c>
+      <c r="AK38">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3801,8 +5091,41 @@
       <c r="Y39">
         <v>0</v>
       </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3878,8 +5201,41 @@
       <c r="Y40">
         <v>1</v>
       </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3955,8 +5311,41 @@
       <c r="Y41">
         <v>0</v>
       </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4032,8 +5421,41 @@
       <c r="Y42">
         <v>0</v>
       </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4109,8 +5531,41 @@
       <c r="Y43">
         <v>0</v>
       </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4186,8 +5641,41 @@
       <c r="Y44">
         <v>0</v>
       </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0.5</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4219,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4263,8 +5751,41 @@
       <c r="Y45">
         <v>0</v>
       </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4340,8 +5861,41 @@
       <c r="Y46">
         <v>0</v>
       </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4417,8 +5971,41 @@
       <c r="Y47">
         <v>0</v>
       </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4494,8 +6081,41 @@
       <c r="Y48">
         <v>0</v>
       </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4571,8 +6191,41 @@
       <c r="Y49">
         <v>0</v>
       </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0.5</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4648,8 +6301,41 @@
       <c r="Y50">
         <v>0</v>
       </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4725,8 +6411,41 @@
       <c r="Y51">
         <v>0</v>
       </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4761,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -4779,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S52">
         <v>0.5</v>
@@ -4802,8 +6521,41 @@
       <c r="Y52">
         <v>0</v>
       </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4879,8 +6631,41 @@
       <c r="Y53">
         <v>0</v>
       </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0.5</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4956,8 +6741,41 @@
       <c r="Y54">
         <v>0</v>
       </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5033,8 +6851,41 @@
       <c r="Y55">
         <v>0</v>
       </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5087,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -5110,8 +6961,41 @@
       <c r="Y56">
         <v>0</v>
       </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0.5</v>
+      </c>
+      <c r="AI56">
+        <v>0.5</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5122,7 +7006,7 @@
         <v>0.5</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5170,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -5187,8 +7071,41 @@
       <c r="Y57">
         <v>0</v>
       </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0.5</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>0.5</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5247,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5264,8 +7181,41 @@
       <c r="Y58">
         <v>0</v>
       </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0.5</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5341,8 +7291,41 @@
       <c r="Y59">
         <v>0</v>
       </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -5374,10 +7357,10 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5395,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -5418,8 +7401,41 @@
       <c r="Y60">
         <v>0</v>
       </c>
+      <c r="Z60">
+        <v>0.5</v>
+      </c>
+      <c r="AA60">
+        <v>0.5</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60">
+        <v>0.5</v>
+      </c>
+      <c r="AI60">
+        <v>0.5</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -5495,8 +7511,41 @@
       <c r="Y61">
         <v>0</v>
       </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0.5</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0.5</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +7621,41 @@
       <c r="Y62">
         <v>0</v>
       </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -5649,8 +7731,41 @@
       <c r="Y63">
         <v>0</v>
       </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -5726,8 +7841,41 @@
       <c r="Y64">
         <v>0</v>
       </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -5803,8 +7951,41 @@
       <c r="Y65">
         <v>0</v>
       </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -5880,8 +8061,41 @@
       <c r="Y66">
         <v>0</v>
       </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0.5</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>0.5</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0.5</v>
+      </c>
+      <c r="AG66">
+        <v>0.5</v>
+      </c>
+      <c r="AH66">
+        <v>0.5</v>
+      </c>
+      <c r="AI66">
+        <v>0.5</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -5957,8 +8171,41 @@
       <c r="Y67">
         <v>0</v>
       </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -6034,8 +8281,41 @@
       <c r="Y68">
         <v>1</v>
       </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>1</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -6111,8 +8391,41 @@
       <c r="Y69">
         <v>0</v>
       </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -6188,8 +8501,41 @@
       <c r="Y70">
         <v>0</v>
       </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -6265,8 +8611,41 @@
       <c r="Y71">
         <v>0</v>
       </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -6342,8 +8721,41 @@
       <c r="Y72">
         <v>0</v>
       </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AC72">
+        <v>1</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -6419,8 +8831,41 @@
       <c r="Y73">
         <v>0</v>
       </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -6473,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -6496,8 +8941,41 @@
       <c r="Y74">
         <v>0</v>
       </c>
+      <c r="Z74">
+        <v>0.5</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>0.5</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -6508,7 +8986,7 @@
         <v>0.5</v>
       </c>
       <c r="D75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -6573,8 +9051,41 @@
       <c r="Y75">
         <v>0</v>
       </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0.5</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0.5</v>
+      </c>
+      <c r="AG75">
+        <v>0.5</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -6650,8 +9161,41 @@
       <c r="Y76">
         <v>1</v>
       </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -6727,8 +9271,41 @@
       <c r="Y77">
         <v>0</v>
       </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -6804,8 +9381,41 @@
       <c r="Y78">
         <v>0</v>
       </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -6881,8 +9491,41 @@
       <c r="Y79">
         <v>0</v>
       </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -6958,8 +9601,41 @@
       <c r="Y80">
         <v>0</v>
       </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0.5</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0.5</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -7035,8 +9711,41 @@
       <c r="Y81">
         <v>0</v>
       </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -7112,8 +9821,41 @@
       <c r="Y82">
         <v>0</v>
       </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>1</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -7189,8 +9931,41 @@
       <c r="Y83">
         <v>0</v>
       </c>
+      <c r="Z83">
+        <v>0.5</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0.5</v>
+      </c>
+      <c r="AH83">
+        <v>0.5</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -7266,8 +10041,41 @@
       <c r="Y84">
         <v>0</v>
       </c>
+      <c r="Z84">
+        <v>0.5</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0.5</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0.5</v>
+      </c>
+      <c r="AG84">
+        <v>1</v>
+      </c>
+      <c r="AH84">
+        <v>1</v>
+      </c>
+      <c r="AI84">
+        <v>0.5</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -7343,8 +10151,41 @@
       <c r="Y85">
         <v>0</v>
       </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0.5</v>
+      </c>
+      <c r="AG85">
+        <v>0.5</v>
+      </c>
+      <c r="AH85">
+        <v>0.5</v>
+      </c>
+      <c r="AI85">
+        <v>0.5</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +10261,41 @@
       <c r="Y86">
         <v>0</v>
       </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -7474,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -7497,8 +10371,41 @@
       <c r="Y87">
         <v>0</v>
       </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>1</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -7574,8 +10481,41 @@
       <c r="Y88">
         <v>0</v>
       </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -7651,8 +10591,41 @@
       <c r="Y89">
         <v>0</v>
       </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0.5</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -7728,8 +10701,41 @@
       <c r="Y90">
         <v>0</v>
       </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>1</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -7805,8 +10811,41 @@
       <c r="Y91">
         <v>0</v>
       </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -7882,8 +10921,41 @@
       <c r="Y92">
         <v>0</v>
       </c>
+      <c r="Z92">
+        <v>1</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>1</v>
+      </c>
+      <c r="AD92">
+        <v>0.5</v>
+      </c>
+      <c r="AE92">
+        <v>0.5</v>
+      </c>
+      <c r="AF92">
+        <v>0.5</v>
+      </c>
+      <c r="AG92">
+        <v>1</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0.5</v>
+      </c>
+      <c r="AK92">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -7959,8 +11031,41 @@
       <c r="Y93">
         <v>0</v>
       </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>1</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -8036,8 +11141,41 @@
       <c r="Y94">
         <v>0</v>
       </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -8113,8 +11251,41 @@
       <c r="Y95">
         <v>0</v>
       </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -8190,8 +11361,41 @@
       <c r="Y96">
         <v>0</v>
       </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0.5</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -8267,8 +11471,41 @@
       <c r="Y97">
         <v>0</v>
       </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>1</v>
+      </c>
+      <c r="AD97">
+        <v>1</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
+      <c r="AF97">
+        <v>1</v>
+      </c>
+      <c r="AG97">
+        <v>1</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>1</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -8344,8 +11581,41 @@
       <c r="Y98">
         <v>0</v>
       </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0.5</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -8421,8 +11691,41 @@
       <c r="Y99">
         <v>0</v>
       </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0.5</v>
+      </c>
+      <c r="AD99">
+        <v>0.5</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
+      </c>
+      <c r="AF99">
+        <v>0.5</v>
+      </c>
+      <c r="AG99">
+        <v>0.5</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0.5</v>
+      </c>
+      <c r="AK99">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -8498,8 +11801,41 @@
       <c r="Y100">
         <v>0</v>
       </c>
+      <c r="Z100">
+        <v>0.5</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0.5</v>
+      </c>
+      <c r="AC100">
+        <v>0.5</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0.5</v>
+      </c>
+      <c r="AF100">
+        <v>0.5</v>
+      </c>
+      <c r="AG100">
+        <v>0.5</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -8531,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -8575,8 +11911,41 @@
       <c r="Y101">
         <v>0</v>
       </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -8652,8 +12021,41 @@
       <c r="Y102">
         <v>0</v>
       </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0.5</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -8718,7 +12120,7 @@
         <v>0.5</v>
       </c>
       <c r="V103">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W103">
         <v>0</v>
@@ -8729,8 +12131,41 @@
       <c r="Y103">
         <v>0</v>
       </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>1</v>
+      </c>
+      <c r="AC103">
+        <v>1</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>1</v>
+      </c>
+      <c r="AG103">
+        <v>0.5</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>1</v>
+      </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -8806,8 +12241,41 @@
       <c r="Y104">
         <v>0</v>
       </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>1</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>1</v>
+      </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -8883,8 +12351,41 @@
       <c r="Y105">
         <v>0</v>
       </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -8960,8 +12461,41 @@
       <c r="Y106">
         <v>0</v>
       </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>0.5</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <v>0</v>
+      </c>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -9037,8 +12571,41 @@
       <c r="Y107">
         <v>0</v>
       </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -9070,7 +12637,7 @@
         <v>0.5</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -9114,8 +12681,41 @@
       <c r="Y108">
         <v>0</v>
       </c>
+      <c r="Z108">
+        <v>0.5</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -9191,8 +12791,41 @@
       <c r="Y109">
         <v>0.5</v>
       </c>
+      <c r="Z109">
+        <v>0.5</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>1</v>
+      </c>
+      <c r="AD109">
+        <v>0.5</v>
+      </c>
+      <c r="AE109">
+        <v>0.5</v>
+      </c>
+      <c r="AF109">
+        <v>1</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0.5</v>
+      </c>
+      <c r="AK109">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -9268,8 +12901,41 @@
       <c r="Y110">
         <v>0</v>
       </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -9289,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -9345,8 +13011,41 @@
       <c r="Y111">
         <v>0</v>
       </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -9420,6 +13119,39 @@
         <v>0</v>
       </c>
       <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>0</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
         <v>0</v>
       </c>
     </row>
@@ -9499,6 +13231,39 @@
       <c r="Y113">
         <v>0</v>
       </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -9576,6 +13341,39 @@
       <c r="Y114">
         <v>0</v>
       </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>0</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -9653,6 +13451,39 @@
       <c r="Y115">
         <v>0</v>
       </c>
+      <c r="Z115">
+        <v>1</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>1</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>1</v>
+      </c>
+      <c r="AF115">
+        <v>1</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -9730,6 +13561,39 @@
       <c r="Y116">
         <v>0</v>
       </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <v>0</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -9807,6 +13671,39 @@
       <c r="Y117">
         <v>0.5</v>
       </c>
+      <c r="Z117">
+        <v>0.5</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>0.5</v>
+      </c>
+      <c r="AC117">
+        <v>1</v>
+      </c>
+      <c r="AD117">
+        <v>0.5</v>
+      </c>
+      <c r="AE117">
+        <v>1</v>
+      </c>
+      <c r="AF117">
+        <v>0.5</v>
+      </c>
+      <c r="AG117">
+        <v>0</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>1</v>
+      </c>
+      <c r="AK117">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -9884,6 +13781,39 @@
       <c r="Y118">
         <v>0</v>
       </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0.5</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -9950,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="V119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W119">
         <v>0</v>
@@ -9959,6 +13889,39 @@
         <v>0</v>
       </c>
       <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>1</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0.5</v>
+      </c>
+      <c r="AK119">
         <v>0</v>
       </c>
     </row>
@@ -10038,6 +14001,39 @@
       <c r="Y120">
         <v>0</v>
       </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>1</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -10113,6 +14109,39 @@
         <v>0</v>
       </c>
       <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
         <v>0</v>
       </c>
     </row>
@@ -10127,7 +14156,7 @@
       </c>
       <c r="D123">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="E123">
         <f t="shared" si="0"/>
@@ -10139,7 +14168,7 @@
       </c>
       <c r="G123">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H123">
         <f t="shared" si="0"/>
@@ -10155,11 +14184,11 @@
       </c>
       <c r="K123">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="L123">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="M123">
         <f t="shared" si="0"/>
@@ -10183,15 +14212,15 @@
       </c>
       <c r="R123">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="S123">
         <f>SUM(S2:S122)</f>
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="T123">
         <f>SUM(T2:T121)</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U123">
         <f>SUM(U2:U122)</f>
@@ -10199,7 +14228,7 @@
       </c>
       <c r="V123">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W123">
         <f t="shared" si="0"/>
@@ -10215,43 +14244,43 @@
       </c>
       <c r="Z123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AA123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AB123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AI123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ123">
         <f t="shared" si="0"/>
@@ -10259,7 +14288,7 @@
       </c>
       <c r="AK123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL123">
         <f t="shared" si="0"/>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -819,9 +819,9 @@
   <dimension ref="A1:AL123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="AL2" sqref="AL2"/>
+      <selection pane="topRight" activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>People are always asking you questions like “How are you?” or “Having a nice day?” for which they don’t really want the real answers.</t>
   </si>
@@ -499,6 +499,30 @@
   <si>
     <t>IT73A</t>
   </si>
+  <si>
+    <t>IT74B</t>
+  </si>
+  <si>
+    <t>IT75C</t>
+  </si>
+  <si>
+    <t>IT79A</t>
+  </si>
+  <si>
+    <t>IT80B</t>
+  </si>
+  <si>
+    <t>IT81C</t>
+  </si>
+  <si>
+    <t>IT85A</t>
+  </si>
+  <si>
+    <t>IT86B</t>
+  </si>
+  <si>
+    <t>IT87C</t>
+  </si>
 </sst>
 </file>
 
@@ -816,12 +840,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL123"/>
+  <dimension ref="A1:AT123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="AL2" sqref="AL2"/>
+      <selection pane="topRight" activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +853,7 @@
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -944,8 +968,32 @@
       <c r="AL1" t="s">
         <v>157</v>
       </c>
+      <c r="AM1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1051,11 +1099,38 @@
       <c r="AI2">
         <v>0</v>
       </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
       <c r="AK2">
         <v>0</v>
       </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1161,11 +1236,38 @@
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
       <c r="AK3">
         <v>0</v>
       </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1271,11 +1373,38 @@
       <c r="AI4">
         <v>0</v>
       </c>
+      <c r="AJ4">
+        <v>0.5</v>
+      </c>
       <c r="AK4">
         <v>0.5</v>
       </c>
+      <c r="AL4">
+        <v>0.5</v>
+      </c>
+      <c r="AM4">
+        <v>0.5</v>
+      </c>
+      <c r="AO4">
+        <v>0.5</v>
+      </c>
+      <c r="AP4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0.5</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1381,11 +1510,38 @@
       <c r="AI5">
         <v>0</v>
       </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
       <c r="AK5">
         <v>0</v>
       </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1491,11 +1647,38 @@
       <c r="AI6">
         <v>0</v>
       </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
       <c r="AK6">
         <v>0.5</v>
       </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1601,11 +1784,38 @@
       <c r="AI7">
         <v>0</v>
       </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
       <c r="AK7">
         <v>0.5</v>
       </c>
+      <c r="AL7">
+        <v>0.5</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1711,11 +1921,38 @@
       <c r="AI8">
         <v>0</v>
       </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
       <c r="AK8">
         <v>1</v>
       </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1821,11 +2058,38 @@
       <c r="AI9">
         <v>0</v>
       </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
       <c r="AK9">
         <v>0</v>
       </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0.5</v>
+      </c>
+      <c r="AS9">
+        <v>0.5</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1931,11 +2195,38 @@
       <c r="AI10">
         <v>0.5</v>
       </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
       <c r="AK10">
         <v>0.5</v>
       </c>
+      <c r="AL10">
+        <v>0.5</v>
+      </c>
+      <c r="AM10">
+        <v>0.5</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0.5</v>
+      </c>
+      <c r="AR10">
+        <v>0.5</v>
+      </c>
+      <c r="AS10">
+        <v>0.5</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2041,11 +2332,38 @@
       <c r="AI11">
         <v>0.5</v>
       </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
       <c r="AK11">
         <v>0</v>
       </c>
+      <c r="AL11">
+        <v>0.5</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0.5</v>
+      </c>
+      <c r="AQ11">
+        <v>0.5</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0.5</v>
+      </c>
+      <c r="AT11">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2151,11 +2469,38 @@
       <c r="AI12">
         <v>0</v>
       </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
       <c r="AK12">
         <v>0</v>
       </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0.5</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0.5</v>
+      </c>
+      <c r="AS12">
+        <v>0.5</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2261,11 +2606,38 @@
       <c r="AI13">
         <v>0</v>
       </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
       <c r="AK13">
         <v>0</v>
       </c>
+      <c r="AL13">
+        <v>0.5</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2371,11 +2743,38 @@
       <c r="AI14">
         <v>0</v>
       </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
       <c r="AK14">
         <v>0</v>
       </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2481,11 +2880,38 @@
       <c r="AI15">
         <v>0</v>
       </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
       <c r="AK15">
         <v>0</v>
       </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2591,11 +3017,38 @@
       <c r="AI16">
         <v>0</v>
       </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
       <c r="AK16">
         <v>0</v>
       </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2701,11 +3154,38 @@
       <c r="AI17">
         <v>0</v>
       </c>
+      <c r="AJ17">
+        <v>0.5</v>
+      </c>
       <c r="AK17">
         <v>0</v>
       </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0.5</v>
+      </c>
+      <c r="AO17">
+        <v>0.5</v>
+      </c>
+      <c r="AP17">
+        <v>0.5</v>
+      </c>
+      <c r="AQ17">
+        <v>0.5</v>
+      </c>
+      <c r="AR17">
+        <v>0.5</v>
+      </c>
+      <c r="AS17">
+        <v>0.5</v>
+      </c>
+      <c r="AT17">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2811,11 +3291,38 @@
       <c r="AI18">
         <v>0</v>
       </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
       <c r="AK18">
         <v>0</v>
       </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2921,11 +3428,38 @@
       <c r="AI19">
         <v>0</v>
       </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
       <c r="AK19">
         <v>0</v>
       </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0.5</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3031,11 +3565,38 @@
       <c r="AI20">
         <v>0</v>
       </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
       <c r="AK20">
         <v>0</v>
       </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3141,11 +3702,38 @@
       <c r="AI21">
         <v>0</v>
       </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
       <c r="AK21">
         <v>0</v>
       </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0.5</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3251,11 +3839,38 @@
       <c r="AI22">
         <v>0</v>
       </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
       <c r="AK22">
         <v>0</v>
       </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3361,11 +3976,38 @@
       <c r="AI23">
         <v>0</v>
       </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
       <c r="AK23">
         <v>0</v>
       </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0.5</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0.5</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3471,11 +4113,38 @@
       <c r="AI24">
         <v>0</v>
       </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
       <c r="AK24">
         <v>0</v>
       </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3581,11 +4250,38 @@
       <c r="AI25">
         <v>0</v>
       </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
       <c r="AK25">
         <v>0</v>
       </c>
+      <c r="AL25">
+        <v>0.5</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0.5</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3691,11 +4387,38 @@
       <c r="AI26">
         <v>0</v>
       </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
       <c r="AK26">
         <v>0</v>
       </c>
+      <c r="AL26">
+        <v>0.5</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0.5</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0.5</v>
+      </c>
+      <c r="AS26">
+        <v>0.5</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3801,11 +4524,38 @@
       <c r="AI27">
         <v>0</v>
       </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
       <c r="AK27">
         <v>0</v>
       </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3911,11 +4661,38 @@
       <c r="AI28">
         <v>0</v>
       </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
       <c r="AK28">
         <v>0</v>
       </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4021,11 +4798,38 @@
       <c r="AI29">
         <v>0</v>
       </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
       <c r="AK29">
         <v>0</v>
       </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4131,11 +4935,38 @@
       <c r="AI30">
         <v>0</v>
       </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
       <c r="AK30">
         <v>0</v>
       </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4241,11 +5072,38 @@
       <c r="AI31">
         <v>0</v>
       </c>
+      <c r="AJ31">
+        <v>0.5</v>
+      </c>
       <c r="AK31">
         <v>0</v>
       </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4351,11 +5209,38 @@
       <c r="AI32">
         <v>0</v>
       </c>
+      <c r="AJ32">
+        <v>0.5</v>
+      </c>
       <c r="AK32">
         <v>0</v>
       </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0.5</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4461,11 +5346,38 @@
       <c r="AI33">
         <v>0</v>
       </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
       <c r="AK33">
         <v>0</v>
       </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0.5</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <v>0.5</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4571,11 +5483,38 @@
       <c r="AI34">
         <v>0</v>
       </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
       <c r="AK34">
         <v>0</v>
       </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4681,11 +5620,38 @@
       <c r="AI35">
         <v>0</v>
       </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
       <c r="AK35">
         <v>0.5</v>
       </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0.5</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0.5</v>
+      </c>
+      <c r="AR35">
+        <v>0.5</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4791,11 +5757,38 @@
       <c r="AI36">
         <v>0</v>
       </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
       <c r="AK36">
         <v>0</v>
       </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4901,11 +5894,38 @@
       <c r="AI37">
         <v>0</v>
       </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
       <c r="AK37">
         <v>0.5</v>
       </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0.5</v>
+      </c>
+      <c r="AP37">
+        <v>0.5</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0.5</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5011,11 +6031,38 @@
       <c r="AI38">
         <v>0.5</v>
       </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
       <c r="AK38">
         <v>0.5</v>
       </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5121,11 +6168,38 @@
       <c r="AI39">
         <v>0</v>
       </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
       <c r="AK39">
         <v>0</v>
       </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5231,11 +6305,38 @@
       <c r="AI40">
         <v>0</v>
       </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
       <c r="AK40">
         <v>0</v>
       </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5341,11 +6442,38 @@
       <c r="AI41">
         <v>0</v>
       </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
       <c r="AK41">
         <v>0</v>
       </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5451,11 +6579,38 @@
       <c r="AI42">
         <v>0</v>
       </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
       <c r="AK42">
         <v>0</v>
       </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5561,11 +6716,38 @@
       <c r="AI43">
         <v>0</v>
       </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
       <c r="AK43">
         <v>0</v>
       </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5671,11 +6853,38 @@
       <c r="AI44">
         <v>0</v>
       </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
       <c r="AK44">
         <v>0</v>
       </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5781,11 +6990,38 @@
       <c r="AI45">
         <v>0</v>
       </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
       <c r="AK45">
         <v>0</v>
       </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5891,11 +7127,38 @@
       <c r="AI46">
         <v>0</v>
       </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
       <c r="AK46">
         <v>0</v>
       </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -6001,11 +7264,38 @@
       <c r="AI47">
         <v>0</v>
       </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
       <c r="AK47">
         <v>0</v>
       </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0.5</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1</v>
+      </c>
+      <c r="AS47">
+        <v>1</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -6111,11 +7401,38 @@
       <c r="AI48">
         <v>0</v>
       </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
       <c r="AK48">
         <v>0</v>
       </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>1</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6221,11 +7538,38 @@
       <c r="AI49">
         <v>0</v>
       </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
       <c r="AK49">
         <v>0</v>
       </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -6331,11 +7675,38 @@
       <c r="AI50">
         <v>0</v>
       </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
       <c r="AK50">
         <v>0.5</v>
       </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>1</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6441,11 +7812,38 @@
       <c r="AI51">
         <v>0</v>
       </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
       <c r="AK51">
         <v>0</v>
       </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6551,11 +7949,38 @@
       <c r="AI52">
         <v>0</v>
       </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
       <c r="AK52">
         <v>0</v>
       </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -6661,11 +8086,38 @@
       <c r="AI53">
         <v>0</v>
       </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
       <c r="AK53">
         <v>0</v>
       </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6771,11 +8223,38 @@
       <c r="AI54">
         <v>0</v>
       </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
       <c r="AK54">
         <v>0</v>
       </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -6881,11 +8360,38 @@
       <c r="AI55">
         <v>0</v>
       </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
       <c r="AK55">
         <v>0</v>
       </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6991,11 +8497,38 @@
       <c r="AI56">
         <v>0.5</v>
       </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
       <c r="AK56">
         <v>0</v>
       </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -7101,11 +8634,38 @@
       <c r="AI57">
         <v>0</v>
       </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
       <c r="AK57">
         <v>0</v>
       </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>1</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -7211,11 +8771,38 @@
       <c r="AI58">
         <v>0</v>
       </c>
+      <c r="AJ58">
+        <v>0.5</v>
+      </c>
       <c r="AK58">
         <v>0</v>
       </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>1</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -7321,11 +8908,38 @@
       <c r="AI59">
         <v>0</v>
       </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
       <c r="AK59">
         <v>0</v>
       </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -7431,11 +9045,38 @@
       <c r="AI60">
         <v>0.5</v>
       </c>
+      <c r="AJ60">
+        <v>1</v>
+      </c>
       <c r="AK60">
         <v>0</v>
       </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -7541,11 +9182,38 @@
       <c r="AI61">
         <v>0</v>
       </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
       <c r="AK61">
         <v>0</v>
       </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -7651,11 +9319,38 @@
       <c r="AI62">
         <v>0</v>
       </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
       <c r="AK62">
         <v>0</v>
       </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -7761,11 +9456,38 @@
       <c r="AI63">
         <v>0</v>
       </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
       <c r="AK63">
         <v>0</v>
       </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7871,11 +9593,38 @@
       <c r="AI64">
         <v>0</v>
       </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
       <c r="AK64">
         <v>0</v>
       </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <v>0</v>
+      </c>
+      <c r="AT64">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -7981,11 +9730,38 @@
       <c r="AI65">
         <v>0</v>
       </c>
+      <c r="AJ65">
+        <v>1</v>
+      </c>
       <c r="AK65">
         <v>0</v>
       </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -8091,11 +9867,38 @@
       <c r="AI66">
         <v>0.5</v>
       </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
       <c r="AK66">
         <v>0</v>
       </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>0.5</v>
+      </c>
+      <c r="AR66">
+        <v>0.5</v>
+      </c>
+      <c r="AS66">
+        <v>0.5</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -8201,11 +10004,38 @@
       <c r="AI67">
         <v>0</v>
       </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
       <c r="AK67">
         <v>0</v>
       </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0.5</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -8311,11 +10141,38 @@
       <c r="AI68">
         <v>1</v>
       </c>
+      <c r="AJ68">
+        <v>1</v>
+      </c>
       <c r="AK68">
         <v>0</v>
       </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1</v>
+      </c>
+      <c r="AS68">
+        <v>1</v>
+      </c>
+      <c r="AT68">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -8421,11 +10278,38 @@
       <c r="AI69">
         <v>0</v>
       </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
       <c r="AK69">
         <v>0</v>
       </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -8531,11 +10415,38 @@
       <c r="AI70">
         <v>0</v>
       </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
       <c r="AK70">
         <v>0</v>
       </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -8641,11 +10552,38 @@
       <c r="AI71">
         <v>0</v>
       </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
       <c r="AK71">
         <v>0</v>
       </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -8751,11 +10689,38 @@
       <c r="AI72">
         <v>0</v>
       </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
       <c r="AK72">
         <v>1</v>
       </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>1</v>
+      </c>
+      <c r="AS72">
+        <v>1</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -8861,11 +10826,38 @@
       <c r="AI73">
         <v>0</v>
       </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
       <c r="AK73">
         <v>0</v>
       </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -8971,11 +10963,38 @@
       <c r="AI74">
         <v>0</v>
       </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
       <c r="AK74">
         <v>0</v>
       </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>1</v>
+      </c>
+      <c r="AS74">
+        <v>0</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -9081,11 +11100,38 @@
       <c r="AI75">
         <v>0</v>
       </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
       <c r="AK75">
         <v>0</v>
       </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <v>0.5</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -9191,11 +11237,38 @@
       <c r="AI76">
         <v>0</v>
       </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
       <c r="AK76">
         <v>0</v>
       </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
+      <c r="AS76">
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -9301,11 +11374,38 @@
       <c r="AI77">
         <v>0</v>
       </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
       <c r="AK77">
         <v>0</v>
       </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>0</v>
+      </c>
+      <c r="AS77">
+        <v>0</v>
+      </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -9411,11 +11511,38 @@
       <c r="AI78">
         <v>0</v>
       </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
       <c r="AK78">
         <v>0</v>
       </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>0</v>
+      </c>
+      <c r="AS78">
+        <v>0</v>
+      </c>
+      <c r="AT78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -9521,11 +11648,38 @@
       <c r="AI79">
         <v>0</v>
       </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
       <c r="AK79">
         <v>0</v>
       </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>0</v>
+      </c>
+      <c r="AS79">
+        <v>0</v>
+      </c>
+      <c r="AT79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -9631,11 +11785,38 @@
       <c r="AI80">
         <v>0</v>
       </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
       <c r="AK80">
         <v>0</v>
       </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>0</v>
+      </c>
+      <c r="AS80">
+        <v>0</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -9741,11 +11922,38 @@
       <c r="AI81">
         <v>0</v>
       </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
       <c r="AK81">
         <v>0</v>
       </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>0</v>
+      </c>
+      <c r="AS81">
+        <v>0</v>
+      </c>
+      <c r="AT81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -9851,11 +12059,38 @@
       <c r="AI82">
         <v>0</v>
       </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
       <c r="AK82">
         <v>0</v>
       </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>0</v>
+      </c>
+      <c r="AS82">
+        <v>0</v>
+      </c>
+      <c r="AT82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -9961,11 +12196,38 @@
       <c r="AI83">
         <v>0</v>
       </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
       <c r="AK83">
         <v>0</v>
       </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <v>0</v>
+      </c>
+      <c r="AS83">
+        <v>0</v>
+      </c>
+      <c r="AT83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -10071,11 +12333,38 @@
       <c r="AI84">
         <v>0.5</v>
       </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
       <c r="AK84">
         <v>0</v>
       </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>0.5</v>
+      </c>
+      <c r="AR84">
+        <v>1</v>
+      </c>
+      <c r="AS84">
+        <v>1</v>
+      </c>
+      <c r="AT84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -10181,11 +12470,38 @@
       <c r="AI85">
         <v>0.5</v>
       </c>
+      <c r="AJ85">
+        <v>0.5</v>
+      </c>
       <c r="AK85">
         <v>0</v>
       </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
+      <c r="AR85">
+        <v>0.5</v>
+      </c>
+      <c r="AS85">
+        <v>0.5</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -10291,11 +12607,38 @@
       <c r="AI86">
         <v>0</v>
       </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
       <c r="AK86">
         <v>0</v>
       </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
+      <c r="AR86">
+        <v>0.5</v>
+      </c>
+      <c r="AS86">
+        <v>0</v>
+      </c>
+      <c r="AT86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -10401,11 +12744,38 @@
       <c r="AI87">
         <v>0</v>
       </c>
+      <c r="AJ87">
+        <v>1</v>
+      </c>
       <c r="AK87">
         <v>0</v>
       </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+      <c r="AQ87">
+        <v>0</v>
+      </c>
+      <c r="AR87">
+        <v>1</v>
+      </c>
+      <c r="AS87">
+        <v>0</v>
+      </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -10511,11 +12881,38 @@
       <c r="AI88">
         <v>0</v>
       </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
       <c r="AK88">
         <v>0</v>
       </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
+      <c r="AS88">
+        <v>0</v>
+      </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -10621,11 +13018,38 @@
       <c r="AI89">
         <v>0</v>
       </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
       <c r="AK89">
         <v>0.5</v>
       </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>0</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>0</v>
+      </c>
+      <c r="AS89">
+        <v>0</v>
+      </c>
+      <c r="AT89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -10731,11 +13155,38 @@
       <c r="AI90">
         <v>1</v>
       </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
       <c r="AK90">
         <v>0</v>
       </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
+      <c r="AR90">
+        <v>0</v>
+      </c>
+      <c r="AS90">
+        <v>0</v>
+      </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -10841,11 +13292,38 @@
       <c r="AI91">
         <v>0</v>
       </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
       <c r="AK91">
         <v>0</v>
       </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <v>0</v>
+      </c>
+      <c r="AS91">
+        <v>0</v>
+      </c>
+      <c r="AT91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -10951,11 +13429,38 @@
       <c r="AI92">
         <v>0.5</v>
       </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
       <c r="AK92">
         <v>0.5</v>
       </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>0.5</v>
+      </c>
+      <c r="AR92">
+        <v>0.5</v>
+      </c>
+      <c r="AS92">
+        <v>0.5</v>
+      </c>
+      <c r="AT92">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -11061,11 +13566,38 @@
       <c r="AI93">
         <v>0</v>
       </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
       <c r="AK93">
         <v>0</v>
       </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0.5</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
+      <c r="AQ93">
+        <v>0</v>
+      </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
+      <c r="AS93">
+        <v>0</v>
+      </c>
+      <c r="AT93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -11171,11 +13703,38 @@
       <c r="AI94">
         <v>0</v>
       </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
       <c r="AK94">
         <v>0</v>
       </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>0</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
+      <c r="AR94">
+        <v>0</v>
+      </c>
+      <c r="AS94">
+        <v>0</v>
+      </c>
+      <c r="AT94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -11281,11 +13840,38 @@
       <c r="AI95">
         <v>0</v>
       </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
       <c r="AK95">
         <v>0</v>
       </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
+      <c r="AQ95">
+        <v>0</v>
+      </c>
+      <c r="AR95">
+        <v>0</v>
+      </c>
+      <c r="AS95">
+        <v>0</v>
+      </c>
+      <c r="AT95">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -11391,11 +13977,38 @@
       <c r="AI96">
         <v>0</v>
       </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
       <c r="AK96">
         <v>0</v>
       </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>0</v>
+      </c>
+      <c r="AQ96">
+        <v>0</v>
+      </c>
+      <c r="AR96">
+        <v>0</v>
+      </c>
+      <c r="AS96">
+        <v>0</v>
+      </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -11501,11 +14114,38 @@
       <c r="AI97">
         <v>1</v>
       </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
       <c r="AK97">
         <v>1</v>
       </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>0</v>
+      </c>
+      <c r="AP97">
+        <v>0</v>
+      </c>
+      <c r="AQ97">
+        <v>0</v>
+      </c>
+      <c r="AR97">
+        <v>0</v>
+      </c>
+      <c r="AS97">
+        <v>1</v>
+      </c>
+      <c r="AT97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -11611,11 +14251,38 @@
       <c r="AI98">
         <v>0.5</v>
       </c>
+      <c r="AJ98">
+        <v>0.5</v>
+      </c>
       <c r="AK98">
         <v>0</v>
       </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>0</v>
+      </c>
+      <c r="AQ98">
+        <v>0</v>
+      </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
+      <c r="AS98">
+        <v>0</v>
+      </c>
+      <c r="AT98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -11721,11 +14388,38 @@
       <c r="AI99">
         <v>0.5</v>
       </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
       <c r="AK99">
         <v>0.5</v>
       </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>0</v>
+      </c>
+      <c r="AQ99">
+        <v>0</v>
+      </c>
+      <c r="AR99">
+        <v>0</v>
+      </c>
+      <c r="AS99">
+        <v>0</v>
+      </c>
+      <c r="AT99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -11831,11 +14525,38 @@
       <c r="AI100">
         <v>0</v>
       </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
       <c r="AK100">
         <v>0</v>
       </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0.5</v>
+      </c>
+      <c r="AO100">
+        <v>0.5</v>
+      </c>
+      <c r="AP100">
+        <v>0</v>
+      </c>
+      <c r="AQ100">
+        <v>0.5</v>
+      </c>
+      <c r="AR100">
+        <v>0</v>
+      </c>
+      <c r="AS100">
+        <v>0.5</v>
+      </c>
+      <c r="AT100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -11941,11 +14662,38 @@
       <c r="AI101">
         <v>0</v>
       </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
       <c r="AK101">
         <v>0</v>
       </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AP101">
+        <v>0</v>
+      </c>
+      <c r="AQ101">
+        <v>0</v>
+      </c>
+      <c r="AR101">
+        <v>0</v>
+      </c>
+      <c r="AS101">
+        <v>0</v>
+      </c>
+      <c r="AT101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -12051,11 +14799,38 @@
       <c r="AI102">
         <v>0</v>
       </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
       <c r="AK102">
         <v>0</v>
       </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AP102">
+        <v>0</v>
+      </c>
+      <c r="AQ102">
+        <v>0</v>
+      </c>
+      <c r="AR102">
+        <v>0</v>
+      </c>
+      <c r="AS102">
+        <v>0</v>
+      </c>
+      <c r="AT102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -12161,11 +14936,38 @@
       <c r="AI103">
         <v>0</v>
       </c>
+      <c r="AJ103">
+        <v>0.5</v>
+      </c>
       <c r="AK103">
         <v>1</v>
       </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
+        <v>0.5</v>
+      </c>
+      <c r="AP103">
+        <v>0</v>
+      </c>
+      <c r="AQ103">
+        <v>0.5</v>
+      </c>
+      <c r="AR103">
+        <v>0</v>
+      </c>
+      <c r="AS103">
+        <v>1</v>
+      </c>
+      <c r="AT103">
+        <v>1</v>
+      </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -12271,11 +15073,38 @@
       <c r="AI104">
         <v>0</v>
       </c>
+      <c r="AJ104">
+        <v>0.5</v>
+      </c>
       <c r="AK104">
         <v>1</v>
       </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>0</v>
+      </c>
+      <c r="AQ104">
+        <v>0.5</v>
+      </c>
+      <c r="AR104">
+        <v>0</v>
+      </c>
+      <c r="AS104">
+        <v>0</v>
+      </c>
+      <c r="AT104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -12381,11 +15210,38 @@
       <c r="AI105">
         <v>0</v>
       </c>
+      <c r="AJ105">
+        <v>0</v>
+      </c>
       <c r="AK105">
         <v>0</v>
       </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
+      <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AO105">
+        <v>0</v>
+      </c>
+      <c r="AP105">
+        <v>0</v>
+      </c>
+      <c r="AQ105">
+        <v>0</v>
+      </c>
+      <c r="AR105">
+        <v>0</v>
+      </c>
+      <c r="AS105">
+        <v>0</v>
+      </c>
+      <c r="AT105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -12491,11 +15347,38 @@
       <c r="AI106">
         <v>0</v>
       </c>
+      <c r="AJ106">
+        <v>0</v>
+      </c>
       <c r="AK106">
         <v>0</v>
       </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AO106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>0</v>
+      </c>
+      <c r="AQ106">
+        <v>0</v>
+      </c>
+      <c r="AR106">
+        <v>0</v>
+      </c>
+      <c r="AS106">
+        <v>0</v>
+      </c>
+      <c r="AT106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -12601,11 +15484,38 @@
       <c r="AI107">
         <v>0</v>
       </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
       <c r="AK107">
         <v>0</v>
       </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>0</v>
+      </c>
+      <c r="AQ107">
+        <v>0</v>
+      </c>
+      <c r="AR107">
+        <v>0</v>
+      </c>
+      <c r="AS107">
+        <v>0</v>
+      </c>
+      <c r="AT107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -12711,11 +15621,38 @@
       <c r="AI108">
         <v>0</v>
       </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
       <c r="AK108">
         <v>0</v>
       </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>0</v>
+      </c>
+      <c r="AQ108">
+        <v>0</v>
+      </c>
+      <c r="AR108">
+        <v>0</v>
+      </c>
+      <c r="AS108">
+        <v>0</v>
+      </c>
+      <c r="AT108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -12821,11 +15758,38 @@
       <c r="AI109">
         <v>0.5</v>
       </c>
+      <c r="AJ109">
+        <v>0.5</v>
+      </c>
       <c r="AK109">
         <v>0.5</v>
       </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
+      <c r="AP109">
+        <v>0</v>
+      </c>
+      <c r="AQ109">
+        <v>0.5</v>
+      </c>
+      <c r="AR109">
+        <v>0</v>
+      </c>
+      <c r="AS109">
+        <v>0.5</v>
+      </c>
+      <c r="AT109">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -12931,11 +15895,38 @@
       <c r="AI110">
         <v>0</v>
       </c>
+      <c r="AJ110">
+        <v>0</v>
+      </c>
       <c r="AK110">
         <v>0</v>
       </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <v>0</v>
+      </c>
+      <c r="AR110">
+        <v>0</v>
+      </c>
+      <c r="AS110">
+        <v>0</v>
+      </c>
+      <c r="AT110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -13041,11 +16032,38 @@
       <c r="AI111">
         <v>0</v>
       </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
       <c r="AK111">
         <v>0</v>
       </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>0.5</v>
+      </c>
+      <c r="AO111">
+        <v>0.5</v>
+      </c>
+      <c r="AP111">
+        <v>0</v>
+      </c>
+      <c r="AQ111">
+        <v>0</v>
+      </c>
+      <c r="AR111">
+        <v>0</v>
+      </c>
+      <c r="AS111">
+        <v>0</v>
+      </c>
+      <c r="AT111">
+        <v>1</v>
+      </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -13151,11 +16169,38 @@
       <c r="AI112">
         <v>0</v>
       </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
       <c r="AK112">
         <v>0</v>
       </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AO112">
+        <v>0</v>
+      </c>
+      <c r="AP112">
+        <v>0</v>
+      </c>
+      <c r="AQ112">
+        <v>0</v>
+      </c>
+      <c r="AR112">
+        <v>0</v>
+      </c>
+      <c r="AS112">
+        <v>0.5</v>
+      </c>
+      <c r="AT112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -13261,11 +16306,38 @@
       <c r="AI113">
         <v>0</v>
       </c>
+      <c r="AJ113">
+        <v>0</v>
+      </c>
       <c r="AK113">
         <v>0</v>
       </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AO113">
+        <v>0</v>
+      </c>
+      <c r="AP113">
+        <v>0</v>
+      </c>
+      <c r="AQ113">
+        <v>0</v>
+      </c>
+      <c r="AR113">
+        <v>0</v>
+      </c>
+      <c r="AS113">
+        <v>0</v>
+      </c>
+      <c r="AT113">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -13371,11 +16443,38 @@
       <c r="AI114">
         <v>0</v>
       </c>
+      <c r="AJ114">
+        <v>0</v>
+      </c>
       <c r="AK114">
         <v>0</v>
       </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>0</v>
+      </c>
+      <c r="AQ114">
+        <v>0</v>
+      </c>
+      <c r="AR114">
+        <v>0</v>
+      </c>
+      <c r="AS114">
+        <v>0</v>
+      </c>
+      <c r="AT114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -13481,11 +16580,38 @@
       <c r="AI115">
         <v>0</v>
       </c>
+      <c r="AJ115">
+        <v>0</v>
+      </c>
       <c r="AK115">
         <v>0</v>
       </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
+      <c r="AQ115">
+        <v>0</v>
+      </c>
+      <c r="AR115">
+        <v>0</v>
+      </c>
+      <c r="AS115">
+        <v>1</v>
+      </c>
+      <c r="AT115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -13591,11 +16717,38 @@
       <c r="AI116">
         <v>0</v>
       </c>
+      <c r="AJ116">
+        <v>0.5</v>
+      </c>
       <c r="AK116">
         <v>0</v>
       </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0.5</v>
+      </c>
+      <c r="AO116">
+        <v>0.5</v>
+      </c>
+      <c r="AP116">
+        <v>0</v>
+      </c>
+      <c r="AQ116">
+        <v>0</v>
+      </c>
+      <c r="AR116">
+        <v>0</v>
+      </c>
+      <c r="AS116">
+        <v>0</v>
+      </c>
+      <c r="AT116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -13701,11 +16854,38 @@
       <c r="AI117">
         <v>1</v>
       </c>
+      <c r="AJ117">
+        <v>1</v>
+      </c>
       <c r="AK117">
         <v>1</v>
       </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
+        <v>0</v>
+      </c>
+      <c r="AP117">
+        <v>0</v>
+      </c>
+      <c r="AQ117">
+        <v>0</v>
+      </c>
+      <c r="AR117">
+        <v>0</v>
+      </c>
+      <c r="AS117">
+        <v>0</v>
+      </c>
+      <c r="AT117">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -13811,11 +16991,38 @@
       <c r="AI118">
         <v>0.5</v>
       </c>
+      <c r="AJ118">
+        <v>0</v>
+      </c>
       <c r="AK118">
         <v>0</v>
       </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>0</v>
+      </c>
+      <c r="AP118">
+        <v>0</v>
+      </c>
+      <c r="AQ118">
+        <v>0</v>
+      </c>
+      <c r="AR118">
+        <v>0</v>
+      </c>
+      <c r="AS118">
+        <v>0</v>
+      </c>
+      <c r="AT118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -13921,11 +17128,38 @@
       <c r="AI119">
         <v>0.5</v>
       </c>
+      <c r="AJ119">
+        <v>0</v>
+      </c>
       <c r="AK119">
         <v>0</v>
       </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AO119">
+        <v>0</v>
+      </c>
+      <c r="AP119">
+        <v>0</v>
+      </c>
+      <c r="AQ119">
+        <v>0</v>
+      </c>
+      <c r="AR119">
+        <v>0</v>
+      </c>
+      <c r="AS119">
+        <v>0</v>
+      </c>
+      <c r="AT119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -14031,11 +17265,38 @@
       <c r="AI120">
         <v>0</v>
       </c>
+      <c r="AJ120">
+        <v>0</v>
+      </c>
       <c r="AK120">
         <v>0</v>
       </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>0</v>
+      </c>
+      <c r="AQ120">
+        <v>0</v>
+      </c>
+      <c r="AR120">
+        <v>0</v>
+      </c>
+      <c r="AS120">
+        <v>0</v>
+      </c>
+      <c r="AT120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -14141,11 +17402,38 @@
       <c r="AI121">
         <v>0</v>
       </c>
+      <c r="AJ121">
+        <v>0</v>
+      </c>
       <c r="AK121">
         <v>0</v>
       </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>0</v>
+      </c>
+      <c r="AR121">
+        <v>0</v>
+      </c>
+      <c r="AS121">
+        <v>0</v>
+      </c>
+      <c r="AT121">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B123">
         <f>SUM(B2:B122)</f>
         <v>24</v>
@@ -14284,7 +17572,7 @@
       </c>
       <c r="AJ123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK123">
         <f t="shared" si="0"/>
@@ -14292,7 +17580,35 @@
       </c>
       <c r="AL123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
+      </c>
+      <c r="AM123">
+        <f>SUM(AM2:AM121)</f>
+        <v>10.5</v>
+      </c>
+      <c r="AO123">
+        <f>SUM(AO2:AO121)</f>
+        <v>13</v>
+      </c>
+      <c r="AP123">
+        <f>SUM(AP2:AP121)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AQ123">
+        <f>SUM(AQ2:AQ121)</f>
+        <v>7.5</v>
+      </c>
+      <c r="AR123">
+        <f>SUM(AR2:AR121)</f>
+        <v>17</v>
+      </c>
+      <c r="AS123">
+        <f>SUM(AS2:AS121)</f>
+        <v>18</v>
+      </c>
+      <c r="AT123">
+        <f>SUM(AT2:AT121)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -17587,27 +17587,27 @@
         <v>10.5</v>
       </c>
       <c r="AO123">
-        <f>SUM(AO2:AO121)</f>
+        <f t="shared" ref="AO123:AT123" si="1">SUM(AO2:AO121)</f>
         <v>13</v>
       </c>
       <c r="AP123">
-        <f>SUM(AP2:AP121)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="AQ123">
-        <f>SUM(AQ2:AQ121)</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="AR123">
-        <f>SUM(AR2:AR121)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AS123">
-        <f>SUM(AS2:AS121)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AT123">
-        <f>SUM(AT2:AT121)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,17 +843,17 @@
   <dimension ref="A1:AT123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
       <selection pane="topRight" activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -993,7 +993,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -16200,7 +16200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B123">
         <f>SUM(B2:B122)</f>
         <v>24</v>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,17 +843,17 @@
   <dimension ref="A1:AT123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="AT2" sqref="AT2"/>
+      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -993,7 +993,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -16200,7 +16200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B123">
         <f>SUM(B2:B122)</f>
         <v>24</v>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -821,15 +821,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="AJ2" sqref="AJ2"/>
+      <selection pane="topRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -945,7 +945,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B123">
         <f>SUM(B2:B122)</f>
         <v>24</v>

--- a/MI Test/Experiment 1/Test/Story Recall Code.xlsx
+++ b/MI Test/Experiment 1/Test/Story Recall Code.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MACA LAB\Documents\GitHub\Story-details\MI Test\Experiment 1\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MACA LAB\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>People are always asking you questions like “How are you?” or “Having a nice day?” for which they don’t really want the real answers.</t>
   </si>
@@ -499,6 +499,30 @@
   <si>
     <t>IT73A</t>
   </si>
+  <si>
+    <t>IT74B</t>
+  </si>
+  <si>
+    <t>IT75C</t>
+  </si>
+  <si>
+    <t>IT79A</t>
+  </si>
+  <si>
+    <t>IT80B</t>
+  </si>
+  <si>
+    <t>IT81C</t>
+  </si>
+  <si>
+    <t>IT85A</t>
+  </si>
+  <si>
+    <t>IT86B</t>
+  </si>
+  <si>
+    <t>IT87C</t>
+  </si>
 </sst>
 </file>
 
@@ -816,20 +840,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL123"/>
+  <dimension ref="A1:AT123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
       <selection activeCell="A94" sqref="A94"/>
-      <selection pane="topRight" activeCell="AM1" sqref="AM1"/>
+      <selection pane="topRight" activeCell="AJ118" sqref="AJ118:AJ121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -944,8 +968,32 @@
       <c r="AL1" t="s">
         <v>157</v>
       </c>
+      <c r="AM1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1051,11 +1099,38 @@
       <c r="AI2">
         <v>0</v>
       </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
       <c r="AK2">
         <v>0</v>
       </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1161,11 +1236,38 @@
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
       <c r="AK3">
         <v>0</v>
       </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1271,11 +1373,38 @@
       <c r="AI4">
         <v>0</v>
       </c>
+      <c r="AJ4">
+        <v>0.5</v>
+      </c>
       <c r="AK4">
         <v>0.5</v>
       </c>
+      <c r="AL4">
+        <v>0.5</v>
+      </c>
+      <c r="AM4">
+        <v>0.5</v>
+      </c>
+      <c r="AO4">
+        <v>0.5</v>
+      </c>
+      <c r="AP4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0.5</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1381,11 +1510,38 @@
       <c r="AI5">
         <v>0</v>
       </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
       <c r="AK5">
         <v>0</v>
       </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1491,11 +1647,38 @@
       <c r="AI6">
         <v>0</v>
       </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
       <c r="AK6">
         <v>0.5</v>
       </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1601,11 +1784,38 @@
       <c r="AI7">
         <v>0</v>
       </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
       <c r="AK7">
         <v>0.5</v>
       </c>
+      <c r="AL7">
+        <v>0.5</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1711,11 +1921,38 @@
       <c r="AI8">
         <v>0</v>
       </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
       <c r="AK8">
         <v>1</v>
       </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1821,11 +2058,38 @@
       <c r="AI9">
         <v>0</v>
       </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
       <c r="AK9">
         <v>0</v>
       </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0.5</v>
+      </c>
+      <c r="AS9">
+        <v>0.5</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1931,11 +2195,38 @@
       <c r="AI10">
         <v>0.5</v>
       </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
       <c r="AK10">
         <v>0.5</v>
       </c>
+      <c r="AL10">
+        <v>0.5</v>
+      </c>
+      <c r="AM10">
+        <v>0.5</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0.5</v>
+      </c>
+      <c r="AR10">
+        <v>0.5</v>
+      </c>
+      <c r="AS10">
+        <v>0.5</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2041,11 +2332,38 @@
       <c r="AI11">
         <v>0.5</v>
       </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
       <c r="AK11">
         <v>0</v>
       </c>
+      <c r="AL11">
+        <v>0.5</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0.5</v>
+      </c>
+      <c r="AQ11">
+        <v>0.5</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0.5</v>
+      </c>
+      <c r="AT11">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2151,11 +2469,38 @@
       <c r="AI12">
         <v>0</v>
       </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
       <c r="AK12">
         <v>0</v>
       </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0.5</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0.5</v>
+      </c>
+      <c r="AS12">
+        <v>0.5</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2261,11 +2606,38 @@
       <c r="AI13">
         <v>0</v>
       </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
       <c r="AK13">
         <v>0</v>
       </c>
+      <c r="AL13">
+        <v>0.5</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2371,11 +2743,38 @@
       <c r="AI14">
         <v>0</v>
       </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
       <c r="AK14">
         <v>0</v>
       </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2481,11 +2880,38 @@
       <c r="AI15">
         <v>0</v>
       </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
       <c r="AK15">
         <v>0</v>
       </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2591,11 +3017,38 @@
       <c r="AI16">
         <v>0</v>
       </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
       <c r="AK16">
         <v>0</v>
       </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2701,11 +3154,38 @@
       <c r="AI17">
         <v>0</v>
       </c>
+      <c r="AJ17">
+        <v>0.5</v>
+      </c>
       <c r="AK17">
         <v>0</v>
       </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0.5</v>
+      </c>
+      <c r="AO17">
+        <v>0.5</v>
+      </c>
+      <c r="AP17">
+        <v>0.5</v>
+      </c>
+      <c r="AQ17">
+        <v>0.5</v>
+      </c>
+      <c r="AR17">
+        <v>0.5</v>
+      </c>
+      <c r="AS17">
+        <v>0.5</v>
+      </c>
+      <c r="AT17">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2811,11 +3291,38 @@
       <c r="AI18">
         <v>0</v>
       </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
       <c r="AK18">
         <v>0</v>
       </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2921,11 +3428,38 @@
       <c r="AI19">
         <v>0</v>
       </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
       <c r="AK19">
         <v>0</v>
       </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0.5</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3031,11 +3565,38 @@
       <c r="AI20">
         <v>0</v>
       </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
       <c r="AK20">
         <v>0</v>
       </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3141,11 +3702,38 @@
       <c r="AI21">
         <v>0</v>
       </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
       <c r="AK21">
         <v>0</v>
       </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0.5</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3251,11 +3839,38 @@
       <c r="AI22">
         <v>0</v>
       </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
       <c r="AK22">
         <v>0</v>
       </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3361,11 +3976,38 @@
       <c r="AI23">
         <v>0</v>
       </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
       <c r="AK23">
         <v>0</v>
       </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0.5</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0.5</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3471,11 +4113,38 @@
       <c r="AI24">
         <v>0</v>
       </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
       <c r="AK24">
         <v>0</v>
       </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3581,11 +4250,38 @@
       <c r="AI25">
         <v>0</v>
       </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
       <c r="AK25">
         <v>0</v>
       </c>
+      <c r="AL25">
+        <v>0.5</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0.5</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3691,11 +4387,38 @@
       <c r="AI26">
         <v>0</v>
       </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
       <c r="AK26">
         <v>0</v>
       </c>
+      <c r="AL26">
+        <v>0.5</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0.5</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0.5</v>
+      </c>
+      <c r="AS26">
+        <v>0.5</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3801,11 +4524,38 @@
       <c r="AI27">
         <v>0</v>
       </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
       <c r="AK27">
         <v>0</v>
       </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3911,11 +4661,38 @@
       <c r="AI28">
         <v>0</v>
       </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
       <c r="AK28">
         <v>0</v>
       </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4021,11 +4798,38 @@
       <c r="AI29">
         <v>0</v>
       </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
       <c r="AK29">
         <v>0</v>
       </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4131,11 +4935,38 @@
       <c r="AI30">
         <v>0</v>
       </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
       <c r="AK30">
         <v>0</v>
       </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4241,11 +5072,38 @@
       <c r="AI31">
         <v>0</v>
       </c>
+      <c r="AJ31">
+        <v>0.5</v>
+      </c>
       <c r="AK31">
         <v>0</v>
       </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4351,11 +5209,38 @@
       <c r="AI32">
         <v>0</v>
       </c>
+      <c r="AJ32">
+        <v>0.5</v>
+      </c>
       <c r="AK32">
         <v>0</v>
       </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0.5</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4461,11 +5346,38 @@
       <c r="AI33">
         <v>0</v>
       </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
       <c r="AK33">
         <v>0</v>
       </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0.5</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <v>0.5</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4571,11 +5483,38 @@
       <c r="AI34">
         <v>0</v>
       </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
       <c r="AK34">
         <v>0</v>
       </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4681,11 +5620,38 @@
       <c r="AI35">
         <v>0</v>
       </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
       <c r="AK35">
         <v>0.5</v>
       </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0.5</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0.5</v>
+      </c>
+      <c r="AR35">
+        <v>0.5</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4791,11 +5757,38 @@
       <c r="AI36">
         <v>0</v>
       </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
       <c r="AK36">
         <v>0</v>
       </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4901,11 +5894,38 @@
       <c r="AI37">
         <v>0</v>
       </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
       <c r="AK37">
         <v>0.5</v>
       </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0.5</v>
+      </c>
+      <c r="AP37">
+        <v>0.5</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0.5</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5011,11 +6031,38 @@
       <c r="AI38">
         <v>0.5</v>
       </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
       <c r="AK38">
         <v>0.5</v>
       </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5121,11 +6168,38 @@
       <c r="AI39">
         <v>0</v>
       </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
       <c r="AK39">
         <v>0</v>
       </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5231,11 +6305,38 @@
       <c r="AI40">
         <v>0</v>
       </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
       <c r="AK40">
         <v>0</v>
       </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5341,11 +6442,38 @@
       <c r="AI41">
         <v>0</v>
       </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
       <c r="AK41">
         <v>0</v>
       </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5451,11 +6579,38 @@
       <c r="AI42">
         <v>0</v>
       </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
       <c r="AK42">
         <v>0</v>
       </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5561,11 +6716,38 @@
       <c r="AI43">
         <v>0</v>
       </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
       <c r="AK43">
         <v>0</v>
       </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5671,11 +6853,38 @@
       <c r="AI44">
         <v>0</v>
       </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
       <c r="AK44">
         <v>0</v>
       </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5781,11 +6990,38 @@
       <c r="AI45">
         <v>0</v>
       </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
       <c r="AK45">
         <v>0</v>
       </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5891,11 +7127,38 @@
       <c r="AI46">
         <v>0</v>
       </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
       <c r="AK46">
         <v>0</v>
       </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -6001,11 +7264,38 @@
       <c r="AI47">
         <v>0</v>
       </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
       <c r="AK47">
         <v>0</v>
       </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0.5</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1</v>
+      </c>
+      <c r="AS47">
+        <v>1</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -6111,11 +7401,38 @@
       <c r="AI48">
         <v>0</v>
       </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
       <c r="AK48">
         <v>0</v>
       </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>1</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6221,11 +7538,38 @@
       <c r="AI49">
         <v>0</v>
       </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
       <c r="AK49">
         <v>0</v>
       </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -6331,11 +7675,38 @@
       <c r="AI50">
         <v>0</v>
       </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
       <c r="AK50">
         <v>0.5</v>
       </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>1</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6441,11 +7812,38 @@
       <c r="AI51">
         <v>0</v>
       </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
       <c r="AK51">
         <v>0</v>
       </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6551,11 +7949,38 @@
       <c r="AI52">
         <v>0</v>
       </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
       <c r="AK52">
         <v>0</v>
       </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -6661,11 +8086,38 @@
       <c r="AI53">
         <v>0</v>
       </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
       <c r="AK53">
         <v>0</v>
       </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6771,11 +8223,38 @@
       <c r="AI54">
         <v>0</v>
       </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
       <c r="AK54">
         <v>0</v>
       </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -6881,11 +8360,38 @@
       <c r="AI55">
         <v>0</v>
       </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
       <c r="AK55">
         <v>0</v>
       </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6991,11 +8497,38 @@
       <c r="AI56">
         <v>0.5</v>
       </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
       <c r="AK56">
         <v>0</v>
       </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -7101,11 +8634,38 @@
       <c r="AI57">
         <v>0</v>
       </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
       <c r="AK57">
         <v>0</v>
       </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>1</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -7211,11 +8771,38 @@
       <c r="AI58">
         <v>0</v>
       </c>
+      <c r="AJ58">
+        <v>0.5</v>
+      </c>
       <c r="AK58">
         <v>0</v>
       </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>1</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -7321,11 +8908,38 @@
       <c r="AI59">
         <v>0</v>
       </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
       <c r="AK59">
         <v>0</v>
       </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -7431,11 +9045,38 @@
       <c r="AI60">
         <v>0.5</v>
       </c>
+      <c r="AJ60">
+        <v>1</v>
+      </c>
       <c r="AK60">
         <v>0</v>
       </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -7541,11 +9182,38 @@
       <c r="AI61">
         <v>0</v>
       </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
       <c r="AK61">
         <v>0</v>
       </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -7651,11 +9319,38 @@
       <c r="AI62">
         <v>0</v>
       </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
       <c r="AK62">
         <v>0</v>
       </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -7761,11 +9456,38 @@
       <c r="AI63">
         <v>0</v>
       </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
       <c r="AK63">
         <v>0</v>
       </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7871,11 +9593,38 @@
       <c r="AI64">
         <v>0</v>
       </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
       <c r="AK64">
         <v>0</v>
       </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <v>0</v>
+      </c>
+      <c r="AT64">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -7981,11 +9730,38 @@
       <c r="AI65">
         <v>0</v>
       </c>
+      <c r="AJ65">
+        <v>1</v>
+      </c>
       <c r="AK65">
         <v>0</v>
       </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -8091,11 +9867,38 @@
       <c r="AI66">
         <v>0.5</v>
       </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
       <c r="AK66">
         <v>0</v>
       </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>0.5</v>
+      </c>
+      <c r="AR66">
+        <v>0.5</v>
+      </c>
+      <c r="AS66">
+        <v>0.5</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -8201,11 +10004,38 @@
       <c r="AI67">
         <v>0</v>
       </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
       <c r="AK67">
         <v>0</v>
       </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0.5</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -8311,11 +10141,38 @@
       <c r="AI68">
         <v>1</v>
       </c>
+      <c r="AJ68">
+        <v>1</v>
+      </c>
       <c r="AK68">
         <v>0</v>
       </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1</v>
+      </c>
+      <c r="AS68">
+        <v>1</v>
+      </c>
+      <c r="AT68">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -8421,11 +10278,38 @@
       <c r="AI69">
         <v>0</v>
       </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
       <c r="AK69">
         <v>0</v>
       </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -8531,11 +10415,38 @@
       <c r="AI70">
         <v>0</v>
       </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
       <c r="AK70">
         <v>0</v>
       </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -8641,11 +10552,38 @@
       <c r="AI71">
         <v>0</v>
       </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
       <c r="AK71">
         <v>0</v>
       </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -8751,11 +10689,38 @@
       <c r="AI72">
         <v>0</v>
       </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
       <c r="AK72">
         <v>1</v>
       </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>1</v>
+      </c>
+      <c r="AS72">
+        <v>1</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -8861,11 +10826,38 @@
       <c r="AI73">
         <v>0</v>
       </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
       <c r="AK73">
         <v>0</v>
       </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -8971,11 +10963,38 @@
       <c r="AI74">
         <v>0</v>
       </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
       <c r="AK74">
         <v>0</v>
       </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>1</v>
+      </c>
+      <c r="AS74">
+        <v>0</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -9081,11 +11100,38 @@
       <c r="AI75">
         <v>0</v>
       </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
       <c r="AK75">
         <v>0</v>
       </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <v>0.5</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -9191,11 +11237,38 @@
       <c r="AI76">
         <v>0</v>
       </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
       <c r="AK76">
         <v>0</v>
       </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
+      <c r="AS76">
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -9301,11 +11374,38 @@
       <c r="AI77">
         <v>0</v>
       </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
       <c r="AK77">
         <v>0</v>
       </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>0</v>
+      </c>
+      <c r="AS77">
+        <v>0</v>
+      </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -9411,11 +11511,38 @@
       <c r="AI78">
         <v>0</v>
       </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
       <c r="AK78">
         <v>0</v>
       </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>0</v>
+      </c>
+      <c r="AS78">
+        <v>0</v>
+      </c>
+      <c r="AT78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -9521,11 +11648,38 @@
       <c r="AI79">
         <v>0</v>
       </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
       <c r="AK79">
         <v>0</v>
       </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>0</v>
+      </c>
+      <c r="AS79">
+        <v>0</v>
+      </c>
+      <c r="AT79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -9631,11 +11785,38 @@
       <c r="AI80">
         <v>0</v>
       </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
       <c r="AK80">
         <v>0</v>
       </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>0</v>
+      </c>
+      <c r="AS80">
+        <v>0</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -9741,11 +11922,38 @@
       <c r="AI81">
         <v>0</v>
       </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
       <c r="AK81">
         <v>0</v>
       </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>0</v>
+      </c>
+      <c r="AS81">
+        <v>0</v>
+      </c>
+      <c r="AT81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -9851,11 +12059,38 @@
       <c r="AI82">
         <v>0</v>
       </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
       <c r="AK82">
         <v>0</v>
       </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>0</v>
+      </c>
+      <c r="AS82">
+        <v>0</v>
+      </c>
+      <c r="AT82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -9961,11 +12196,38 @@
       <c r="AI83">
         <v>0</v>
       </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
       <c r="AK83">
         <v>0</v>
       </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <v>0</v>
+      </c>
+      <c r="AS83">
+        <v>0</v>
+      </c>
+      <c r="AT83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -10071,11 +12333,38 @@
       <c r="AI84">
         <v>0.5</v>
       </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
       <c r="AK84">
         <v>0</v>
       </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>0.5</v>
+      </c>
+      <c r="AR84">
+        <v>1</v>
+      </c>
+      <c r="AS84">
+        <v>1</v>
+      </c>
+      <c r="AT84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -10181,11 +12470,38 @@
       <c r="AI85">
         <v>0.5</v>
       </c>
+      <c r="AJ85">
+        <v>0.5</v>
+      </c>
       <c r="AK85">
         <v>0</v>
       </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
+      <c r="AR85">
+        <v>0.5</v>
+      </c>
+      <c r="AS85">
+        <v>0.5</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -10291,11 +12607,38 @@
       <c r="AI86">
         <v>0</v>
       </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
       <c r="AK86">
         <v>0</v>
       </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
+      <c r="AR86">
+        <v>0.5</v>
+      </c>
+      <c r="AS86">
+        <v>0</v>
+      </c>
+      <c r="AT86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -10401,11 +12744,38 @@
       <c r="AI87">
         <v>0</v>
       </c>
+      <c r="AJ87">
+        <v>1</v>
+      </c>
       <c r="AK87">
         <v>0</v>
       </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+      <c r="AQ87">
+        <v>0</v>
+      </c>
+      <c r="AR87">
+        <v>1</v>
+      </c>
+      <c r="AS87">
+        <v>0</v>
+      </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -10511,11 +12881,38 @@
       <c r="AI88">
         <v>0</v>
       </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
       <c r="AK88">
         <v>0</v>
       </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
+      <c r="AS88">
+        <v>0</v>
+      </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -10621,11 +13018,38 @@
       <c r="AI89">
         <v>0</v>
       </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
       <c r="AK89">
         <v>0.5</v>
       </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>0</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>0</v>
+      </c>
+      <c r="AS89">
+        <v>0</v>
+      </c>
+      <c r="AT89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -10731,11 +13155,38 @@
       <c r="AI90">
         <v>1</v>
       </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
       <c r="AK90">
         <v>0</v>
       </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
+      <c r="AR90">
+        <v>0</v>
+      </c>
+      <c r="AS90">
+        <v>0</v>
+      </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -10841,11 +13292,38 @@
       <c r="AI91">
         <v>0</v>
       </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
       <c r="AK91">
         <v>0</v>
       </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <v>0</v>
+      </c>
+      <c r="AS91">
+        <v>0</v>
+      </c>
+      <c r="AT91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -10951,11 +13429,38 @@
       <c r="AI92">
         <v>0.5</v>
       </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
       <c r="AK92">
         <v>0.5</v>
       </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>0.5</v>
+      </c>
+      <c r="AR92">
+        <v>0.5</v>
+      </c>
+      <c r="AS92">
+        <v>0.5</v>
+      </c>
+      <c r="AT92">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -11061,11 +13566,38 @@
       <c r="AI93">
         <v>0</v>
       </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
       <c r="AK93">
         <v>0</v>
       </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0.5</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
+      <c r="AQ93">
+        <v>0</v>
+      </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
+      <c r="AS93">
+        <v>0</v>
+      </c>
+      <c r="AT93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -11171,11 +13703,38 @@
       <c r="AI94">
         <v>0</v>
       </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
       <c r="AK94">
         <v>0</v>
       </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>0</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
+      <c r="AR94">
+        <v>0</v>
+      </c>
+      <c r="AS94">
+        <v>0</v>
+      </c>
+      <c r="AT94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -11281,11 +13840,38 @@
       <c r="AI95">
         <v>0</v>
       </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
       <c r="AK95">
         <v>0</v>
       </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
+      <c r="AQ95">
+        <v>0</v>
+      </c>
+      <c r="AR95">
+        <v>0</v>
+      </c>
+      <c r="AS95">
+        <v>0</v>
+      </c>
+      <c r="AT95">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -11391,11 +13977,38 @@
       <c r="AI96">
         <v>0</v>
       </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
       <c r="AK96">
         <v>0</v>
       </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>0</v>
+      </c>
+      <c r="AQ96">
+        <v>0</v>
+      </c>
+      <c r="AR96">
+        <v>0</v>
+      </c>
+      <c r="AS96">
+        <v>0</v>
+      </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -11501,11 +14114,38 @@
       <c r="AI97">
         <v>1</v>
       </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
       <c r="AK97">
         <v>1</v>
       </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>0</v>
+      </c>
+      <c r="AP97">
+        <v>0</v>
+      </c>
+      <c r="AQ97">
+        <v>0</v>
+      </c>
+      <c r="AR97">
+        <v>0</v>
+      </c>
+      <c r="AS97">
+        <v>1</v>
+      </c>
+      <c r="AT97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -11611,11 +14251,38 @@
       <c r="AI98">
         <v>0.5</v>
       </c>
+      <c r="AJ98">
+        <v>0.5</v>
+      </c>
       <c r="AK98">
         <v>0</v>
       </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>0</v>
+      </c>
+      <c r="AQ98">
+        <v>0</v>
+      </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
+      <c r="AS98">
+        <v>0</v>
+      </c>
+      <c r="AT98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -11721,11 +14388,38 @@
       <c r="AI99">
         <v>0.5</v>
       </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
       <c r="AK99">
         <v>0.5</v>
       </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>0</v>
+      </c>
+      <c r="AQ99">
+        <v>0</v>
+      </c>
+      <c r="AR99">
+        <v>0</v>
+      </c>
+      <c r="AS99">
+        <v>0</v>
+      </c>
+      <c r="AT99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -11831,11 +14525,38 @@
       <c r="AI100">
         <v>0</v>
       </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
       <c r="AK100">
         <v>0</v>
       </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0.5</v>
+      </c>
+      <c r="AO100">
+        <v>0.5</v>
+      </c>
+      <c r="AP100">
+        <v>0</v>
+      </c>
+      <c r="AQ100">
+        <v>0.5</v>
+      </c>
+      <c r="AR100">
+        <v>0</v>
+      </c>
+      <c r="AS100">
+        <v>0.5</v>
+      </c>
+      <c r="AT100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -11941,11 +14662,38 @@
       <c r="AI101">
         <v>0</v>
       </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
       <c r="AK101">
         <v>0</v>
       </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AP101">
+        <v>0</v>
+      </c>
+      <c r="AQ101">
+        <v>0</v>
+      </c>
+      <c r="AR101">
+        <v>0</v>
+      </c>
+      <c r="AS101">
+        <v>0</v>
+      </c>
+      <c r="AT101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -12051,11 +14799,38 @@
       <c r="AI102">
         <v>0</v>
       </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
       <c r="AK102">
         <v>0</v>
       </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AP102">
+        <v>0</v>
+      </c>
+      <c r="AQ102">
+        <v>0</v>
+      </c>
+      <c r="AR102">
+        <v>0</v>
+      </c>
+      <c r="AS102">
+        <v>0</v>
+      </c>
+      <c r="AT102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -12161,11 +14936,38 @@
       <c r="AI103">
         <v>0</v>
       </c>
+      <c r="AJ103">
+        <v>0.5</v>
+      </c>
       <c r="AK103">
         <v>1</v>
       </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
+        <v>0.5</v>
+      </c>
+      <c r="AP103">
+        <v>0</v>
+      </c>
+      <c r="AQ103">
+        <v>0.5</v>
+      </c>
+      <c r="AR103">
+        <v>0</v>
+      </c>
+      <c r="AS103">
+        <v>1</v>
+      </c>
+      <c r="AT103">
+        <v>1</v>
+      </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -12271,11 +15073,38 @@
       <c r="AI104">
         <v>0</v>
       </c>
+      <c r="AJ104">
+        <v>0.5</v>
+      </c>
       <c r="AK104">
         <v>1</v>
       </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>0</v>
+      </c>
+      <c r="AQ104">
+        <v>0.5</v>
+      </c>
+      <c r="AR104">
+        <v>0</v>
+      </c>
+      <c r="AS104">
+        <v>0</v>
+      </c>
+      <c r="AT104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -12381,11 +15210,38 @@
       <c r="AI105">
         <v>0</v>
       </c>
+      <c r="AJ105">
+        <v>0</v>
+      </c>
       <c r="AK105">
         <v>0</v>
       </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
+      <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AO105">
+        <v>0</v>
+      </c>
+      <c r="AP105">
+        <v>0</v>
+      </c>
+      <c r="AQ105">
+        <v>0</v>
+      </c>
+      <c r="AR105">
+        <v>0</v>
+      </c>
+      <c r="AS105">
+        <v>0</v>
+      </c>
+      <c r="AT105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -12491,11 +15347,38 @@
       <c r="AI106">
         <v>0</v>
       </c>
+      <c r="AJ106">
+        <v>0</v>
+      </c>
       <c r="AK106">
         <v>0</v>
       </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AO106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>0</v>
+      </c>
+      <c r="AQ106">
+        <v>0</v>
+      </c>
+      <c r="AR106">
+        <v>0</v>
+      </c>
+      <c r="AS106">
+        <v>0</v>
+      </c>
+      <c r="AT106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -12601,11 +15484,38 @@
       <c r="AI107">
         <v>0</v>
       </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
       <c r="AK107">
         <v>0</v>
       </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>0</v>
+      </c>
+      <c r="AQ107">
+        <v>0</v>
+      </c>
+      <c r="AR107">
+        <v>0</v>
+      </c>
+      <c r="AS107">
+        <v>0</v>
+      </c>
+      <c r="AT107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -12711,11 +15621,38 @@
       <c r="AI108">
         <v>0</v>
       </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
       <c r="AK108">
         <v>0</v>
       </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>0</v>
+      </c>
+      <c r="AQ108">
+        <v>0</v>
+      </c>
+      <c r="AR108">
+        <v>0</v>
+      </c>
+      <c r="AS108">
+        <v>0</v>
+      </c>
+      <c r="AT108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -12821,11 +15758,38 @@
       <c r="AI109">
         <v>0.5</v>
       </c>
+      <c r="AJ109">
+        <v>0.5</v>
+      </c>
       <c r="AK109">
         <v>0.5</v>
       </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
+      <c r="AP109">
+        <v>0</v>
+      </c>
+      <c r="AQ109">
+        <v>0.5</v>
+      </c>
+      <c r="AR109">
+        <v>0</v>
+      </c>
+      <c r="AS109">
+        <v>0.5</v>
+      </c>
+      <c r="AT109">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -12931,11 +15895,38 @@
       <c r="AI110">
         <v>0</v>
       </c>
+      <c r="AJ110">
+        <v>0</v>
+      </c>
       <c r="AK110">
         <v>0</v>
       </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <v>0</v>
+      </c>
+      <c r="AR110">
+        <v>0</v>
+      </c>
+      <c r="AS110">
+        <v>0</v>
+      </c>
+      <c r="AT110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -13041,11 +16032,38 @@
       <c r="AI111">
         <v>0</v>
       </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
       <c r="AK111">
         <v>0</v>
       </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>0.5</v>
+      </c>
+      <c r="AO111">
+        <v>0.5</v>
+      </c>
+      <c r="AP111">
+        <v>0</v>
+      </c>
+      <c r="AQ111">
+        <v>0</v>
+      </c>
+      <c r="AR111">
+        <v>0</v>
+      </c>
+      <c r="AS111">
+        <v>0</v>
+      </c>
+      <c r="AT111">
+        <v>1</v>
+      </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -13151,11 +16169,38 @@
       <c r="AI112">
         <v>0</v>
       </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
       <c r="AK112">
         <v>0</v>
       </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AO112">
+        <v>0</v>
+      </c>
+      <c r="AP112">
+        <v>0</v>
+      </c>
+      <c r="AQ112">
+        <v>0</v>
+      </c>
+      <c r="AR112">
+        <v>0</v>
+      </c>
+      <c r="AS112">
+        <v>0.5</v>
+      </c>
+      <c r="AT112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -13261,11 +16306,38 @@
       <c r="AI113">
         <v>0</v>
       </c>
+      <c r="AJ113">
+        <v>0</v>
+      </c>
       <c r="AK113">
         <v>0</v>
       </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AO113">
+        <v>0</v>
+      </c>
+      <c r="AP113">
+        <v>0</v>
+      </c>
+      <c r="AQ113">
+        <v>0</v>
+      </c>
+      <c r="AR113">
+        <v>0</v>
+      </c>
+      <c r="AS113">
+        <v>0</v>
+      </c>
+      <c r="AT113">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -13371,11 +16443,38 @@
       <c r="AI114">
         <v>0</v>
       </c>
+      <c r="AJ114">
+        <v>0</v>
+      </c>
       <c r="AK114">
         <v>0</v>
       </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>0</v>
+      </c>
+      <c r="AQ114">
+        <v>0</v>
+      </c>
+      <c r="AR114">
+        <v>0</v>
+      </c>
+      <c r="AS114">
+        <v>0</v>
+      </c>
+      <c r="AT114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -13481,11 +16580,38 @@
       <c r="AI115">
         <v>0</v>
       </c>
+      <c r="AJ115">
+        <v>0</v>
+      </c>
       <c r="AK115">
         <v>0</v>
       </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
+      <c r="AQ115">
+        <v>0</v>
+      </c>
+      <c r="AR115">
+        <v>0</v>
+      </c>
+      <c r="AS115">
+        <v>1</v>
+      </c>
+      <c r="AT115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -13591,11 +16717,38 @@
       <c r="AI116">
         <v>0</v>
       </c>
+      <c r="AJ116">
+        <v>0.5</v>
+      </c>
       <c r="AK116">
         <v>0</v>
       </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0.5</v>
+      </c>
+      <c r="AO116">
+        <v>0.5</v>
+      </c>
+      <c r="AP116">
+        <v>0</v>
+      </c>
+      <c r="AQ116">
+        <v>0</v>
+      </c>
+      <c r="AR116">
+        <v>0</v>
+      </c>
+      <c r="AS116">
+        <v>0</v>
+      </c>
+      <c r="AT116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -13701,11 +16854,38 @@
       <c r="AI117">
         <v>1</v>
       </c>
+      <c r="AJ117">
+        <v>1</v>
+      </c>
       <c r="AK117">
         <v>1</v>
       </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
+        <v>0</v>
+      </c>
+      <c r="AP117">
+        <v>0</v>
+      </c>
+      <c r="AQ117">
+        <v>0</v>
+      </c>
+      <c r="AR117">
+        <v>0</v>
+      </c>
+      <c r="AS117">
+        <v>0</v>
+      </c>
+      <c r="AT117">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -13811,11 +16991,38 @@
       <c r="AI118">
         <v>0.5</v>
       </c>
+      <c r="AJ118">
+        <v>0</v>
+      </c>
       <c r="AK118">
         <v>0</v>
       </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>0</v>
+      </c>
+      <c r="AP118">
+        <v>0</v>
+      </c>
+      <c r="AQ118">
+        <v>0</v>
+      </c>
+      <c r="AR118">
+        <v>0</v>
+      </c>
+      <c r="AS118">
+        <v>0</v>
+      </c>
+      <c r="AT118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -13921,11 +17128,38 @@
       <c r="AI119">
         <v>0.5</v>
       </c>
+      <c r="AJ119">
+        <v>0</v>
+      </c>
       <c r="AK119">
         <v>0</v>
       </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AO119">
+        <v>0</v>
+      </c>
+      <c r="AP119">
+        <v>0</v>
+      </c>
+      <c r="AQ119">
+        <v>0</v>
+      </c>
+      <c r="AR119">
+        <v>0</v>
+      </c>
+      <c r="AS119">
+        <v>0</v>
+      </c>
+      <c r="AT119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -14031,11 +17265,38 @@
       <c r="AI120">
         <v>0</v>
       </c>
+      <c r="AJ120">
+        <v>0</v>
+      </c>
       <c r="AK120">
         <v>0</v>
       </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>0</v>
+      </c>
+      <c r="AQ120">
+        <v>0</v>
+      </c>
+      <c r="AR120">
+        <v>0</v>
+      </c>
+      <c r="AS120">
+        <v>0</v>
+      </c>
+      <c r="AT120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -14141,11 +17402,38 @@
       <c r="AI121">
         <v>0</v>
       </c>
+      <c r="AJ121">
+        <v>0</v>
+      </c>
       <c r="AK121">
         <v>0</v>
       </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>0</v>
+      </c>
+      <c r="AR121">
+        <v>0</v>
+      </c>
+      <c r="AS121">
+        <v>0</v>
+      </c>
+      <c r="AT121">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B123">
         <f>SUM(B2:B122)</f>
         <v>24</v>
@@ -14284,7 +17572,7 @@
       </c>
       <c r="AJ123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK123">
         <f t="shared" si="0"/>
@@ -14292,7 +17580,35 @@
       </c>
       <c r="AL123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
+      </c>
+      <c r="AM123">
+        <f>SUM(AM2:AM121)</f>
+        <v>10.5</v>
+      </c>
+      <c r="AO123">
+        <f>SUM(AO2:AO121)</f>
+        <v>13</v>
+      </c>
+      <c r="AP123">
+        <f>SUM(AP2:AP121)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AQ123">
+        <f>SUM(AQ2:AQ121)</f>
+        <v>7.5</v>
+      </c>
+      <c r="AR123">
+        <f>SUM(AR2:AR121)</f>
+        <v>17</v>
+      </c>
+      <c r="AS123">
+        <f>SUM(AS2:AS121)</f>
+        <v>18</v>
+      </c>
+      <c r="AT123">
+        <f>SUM(AT2:AT121)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
